--- a/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
+++ b/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcessForDESA\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcess\DESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2597455F-069A-4CFC-9BD3-8965B28B913F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A9E0A-2624-40E5-9488-F78190B245A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隆工的正常维护，程序特殊处理后更新</t>
+    <t>隆工不需要特殊维护，程序特殊处理后更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7733,7 +7733,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
+++ b/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcess\DESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A9E0A-2624-40E5-9488-F78190B245A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813DC3B-2B03-4DCA-B5B4-BFB8D86462EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Special Logic" sheetId="2" r:id="rId2"/>
+    <sheet name="LOB" sheetId="5" r:id="rId2"/>
+    <sheet name="Emission" sheetId="4" r:id="rId3"/>
+    <sheet name="Special Logic" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$E$370</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="731">
   <si>
     <t>Domestic</t>
   </si>
@@ -967,9 +969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Taiwan ISF Truck</t>
-  </si>
-  <si>
     <t>ISF2.8S5148T   Rated @148HP@2900RPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,13 +1023,1257 @@
   <si>
     <t>隆工不需要特殊维护，程序特殊处理后更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>TEST6</t>
+  </si>
+  <si>
+    <t>TEST7</t>
+  </si>
+  <si>
+    <t>TEST8</t>
+  </si>
+  <si>
+    <t>TEST9</t>
+  </si>
+  <si>
+    <t>TEST10</t>
+  </si>
+  <si>
+    <t>TEST11</t>
+  </si>
+  <si>
+    <t>TEST12</t>
+  </si>
+  <si>
+    <t>TEST13</t>
+  </si>
+  <si>
+    <t>TEST14</t>
+  </si>
+  <si>
+    <t>TEST15</t>
+  </si>
+  <si>
+    <t>TEST16</t>
+  </si>
+  <si>
+    <t>TEST17</t>
+  </si>
+  <si>
+    <t>TEST18</t>
+  </si>
+  <si>
+    <t>TEST19</t>
+  </si>
+  <si>
+    <t>TEST20</t>
+  </si>
+  <si>
+    <t>TEST21</t>
+  </si>
+  <si>
+    <t>TEST22</t>
+  </si>
+  <si>
+    <t>TEST23</t>
+  </si>
+  <si>
+    <t>TEST24</t>
+  </si>
+  <si>
+    <t>TEST25</t>
+  </si>
+  <si>
+    <t>TEST26</t>
+  </si>
+  <si>
+    <t>TEST27</t>
+  </si>
+  <si>
+    <t>TEST28</t>
+  </si>
+  <si>
+    <t>TEST29</t>
+  </si>
+  <si>
+    <t>TEST30</t>
+  </si>
+  <si>
+    <t>TEST31</t>
+  </si>
+  <si>
+    <t>TEST32</t>
+  </si>
+  <si>
+    <t>TEST33</t>
+  </si>
+  <si>
+    <t>TEST34</t>
+  </si>
+  <si>
+    <t>TEST35</t>
+  </si>
+  <si>
+    <t>TEST36</t>
+  </si>
+  <si>
+    <t>TEST37</t>
+  </si>
+  <si>
+    <t>TEST38</t>
+  </si>
+  <si>
+    <t>TEST39</t>
+  </si>
+  <si>
+    <t>TEST40</t>
+  </si>
+  <si>
+    <t>TEST41</t>
+  </si>
+  <si>
+    <t>TEST42</t>
+  </si>
+  <si>
+    <t>TEST43</t>
+  </si>
+  <si>
+    <t>TEST44</t>
+  </si>
+  <si>
+    <t>TEST45</t>
+  </si>
+  <si>
+    <t>TEST46</t>
+  </si>
+  <si>
+    <t>TEST47</t>
+  </si>
+  <si>
+    <t>TEST48</t>
+  </si>
+  <si>
+    <t>TEST49</t>
+  </si>
+  <si>
+    <t>TEST50</t>
+  </si>
+  <si>
+    <t>TEST51</t>
+  </si>
+  <si>
+    <t>TEST52</t>
+  </si>
+  <si>
+    <t>TEST53</t>
+  </si>
+  <si>
+    <t>TEST54</t>
+  </si>
+  <si>
+    <t>TEST55</t>
+  </si>
+  <si>
+    <t>TEST56</t>
+  </si>
+  <si>
+    <t>TEST57</t>
+  </si>
+  <si>
+    <t>TEST58</t>
+  </si>
+  <si>
+    <t>TEST59</t>
+  </si>
+  <si>
+    <t>TEST60</t>
+  </si>
+  <si>
+    <t>TEST61</t>
+  </si>
+  <si>
+    <t>TEST62</t>
+  </si>
+  <si>
+    <t>TEST63</t>
+  </si>
+  <si>
+    <t>TEST64</t>
+  </si>
+  <si>
+    <t>TEST65</t>
+  </si>
+  <si>
+    <t>TEST66</t>
+  </si>
+  <si>
+    <t>TEST67</t>
+  </si>
+  <si>
+    <t>TEST68</t>
+  </si>
+  <si>
+    <t>TEST69</t>
+  </si>
+  <si>
+    <t>TEST70</t>
+  </si>
+  <si>
+    <t>TEST71</t>
+  </si>
+  <si>
+    <t>TEST72</t>
+  </si>
+  <si>
+    <t>TEST73</t>
+  </si>
+  <si>
+    <t>TEST74</t>
+  </si>
+  <si>
+    <t>TEST75</t>
+  </si>
+  <si>
+    <t>TEST76</t>
+  </si>
+  <si>
+    <t>TEST77</t>
+  </si>
+  <si>
+    <t>TEST78</t>
+  </si>
+  <si>
+    <t>TEST79</t>
+  </si>
+  <si>
+    <t>TEST80</t>
+  </si>
+  <si>
+    <t>TEST81</t>
+  </si>
+  <si>
+    <t>TEST82</t>
+  </si>
+  <si>
+    <t>TEST83</t>
+  </si>
+  <si>
+    <t>TEST84</t>
+  </si>
+  <si>
+    <t>TEST85</t>
+  </si>
+  <si>
+    <t>TEST86</t>
+  </si>
+  <si>
+    <t>TEST87</t>
+  </si>
+  <si>
+    <t>TEST88</t>
+  </si>
+  <si>
+    <t>TEST89</t>
+  </si>
+  <si>
+    <t>TEST90</t>
+  </si>
+  <si>
+    <t>TEST91</t>
+  </si>
+  <si>
+    <t>TEST92</t>
+  </si>
+  <si>
+    <t>TEST93</t>
+  </si>
+  <si>
+    <t>TEST94</t>
+  </si>
+  <si>
+    <t>TEST95</t>
+  </si>
+  <si>
+    <t>TEST96</t>
+  </si>
+  <si>
+    <t>TEST97</t>
+  </si>
+  <si>
+    <t>TEST98</t>
+  </si>
+  <si>
+    <t>TEST99</t>
+  </si>
+  <si>
+    <t>TEST100</t>
+  </si>
+  <si>
+    <t>TEST101</t>
+  </si>
+  <si>
+    <t>TEST102</t>
+  </si>
+  <si>
+    <t>TEST103</t>
+  </si>
+  <si>
+    <t>TEST104</t>
+  </si>
+  <si>
+    <t>TEST105</t>
+  </si>
+  <si>
+    <t>TEST106</t>
+  </si>
+  <si>
+    <t>TEST107</t>
+  </si>
+  <si>
+    <t>TEST108</t>
+  </si>
+  <si>
+    <t>TEST109</t>
+  </si>
+  <si>
+    <t>TEST110</t>
+  </si>
+  <si>
+    <t>TEST111</t>
+  </si>
+  <si>
+    <t>TEST112</t>
+  </si>
+  <si>
+    <t>TEST113</t>
+  </si>
+  <si>
+    <t>TEST114</t>
+  </si>
+  <si>
+    <t>TEST115</t>
+  </si>
+  <si>
+    <t>TEST116</t>
+  </si>
+  <si>
+    <t>TEST117</t>
+  </si>
+  <si>
+    <t>TEST118</t>
+  </si>
+  <si>
+    <t>TEST119</t>
+  </si>
+  <si>
+    <t>TEST120</t>
+  </si>
+  <si>
+    <t>TEST121</t>
+  </si>
+  <si>
+    <t>TEST122</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>TEST124</t>
+  </si>
+  <si>
+    <t>TEST125</t>
+  </si>
+  <si>
+    <t>TEST126</t>
+  </si>
+  <si>
+    <t>TEST127</t>
+  </si>
+  <si>
+    <t>TEST128</t>
+  </si>
+  <si>
+    <t>TEST129</t>
+  </si>
+  <si>
+    <t>TEST130</t>
+  </si>
+  <si>
+    <t>TEST131</t>
+  </si>
+  <si>
+    <t>TEST132</t>
+  </si>
+  <si>
+    <t>TEST133</t>
+  </si>
+  <si>
+    <t>TEST134</t>
+  </si>
+  <si>
+    <t>TEST135</t>
+  </si>
+  <si>
+    <t>TEST136</t>
+  </si>
+  <si>
+    <t>TEST137</t>
+  </si>
+  <si>
+    <t>TEST138</t>
+  </si>
+  <si>
+    <t>TEST139</t>
+  </si>
+  <si>
+    <t>TEST140</t>
+  </si>
+  <si>
+    <t>TEST141</t>
+  </si>
+  <si>
+    <t>TEST142</t>
+  </si>
+  <si>
+    <t>TEST143</t>
+  </si>
+  <si>
+    <t>TEST144</t>
+  </si>
+  <si>
+    <t>TEST145</t>
+  </si>
+  <si>
+    <t>TEST146</t>
+  </si>
+  <si>
+    <t>TEST147</t>
+  </si>
+  <si>
+    <t>TEST148</t>
+  </si>
+  <si>
+    <t>TEST149</t>
+  </si>
+  <si>
+    <t>TEST150</t>
+  </si>
+  <si>
+    <t>TEST151</t>
+  </si>
+  <si>
+    <t>TEST152</t>
+  </si>
+  <si>
+    <t>TEST153</t>
+  </si>
+  <si>
+    <t>TEST154</t>
+  </si>
+  <si>
+    <t>TEST155</t>
+  </si>
+  <si>
+    <t>TEST156</t>
+  </si>
+  <si>
+    <t>TEST157</t>
+  </si>
+  <si>
+    <t>TEST158</t>
+  </si>
+  <si>
+    <t>TEST159</t>
+  </si>
+  <si>
+    <t>TEST160</t>
+  </si>
+  <si>
+    <t>TEST161</t>
+  </si>
+  <si>
+    <t>TEST162</t>
+  </si>
+  <si>
+    <t>TEST163</t>
+  </si>
+  <si>
+    <t>TEST164</t>
+  </si>
+  <si>
+    <t>TEST165</t>
+  </si>
+  <si>
+    <t>TEST166</t>
+  </si>
+  <si>
+    <t>TEST167</t>
+  </si>
+  <si>
+    <t>TEST168</t>
+  </si>
+  <si>
+    <t>TEST169</t>
+  </si>
+  <si>
+    <t>TEST170</t>
+  </si>
+  <si>
+    <t>TEST171</t>
+  </si>
+  <si>
+    <t>TEST172</t>
+  </si>
+  <si>
+    <t>TEST173</t>
+  </si>
+  <si>
+    <t>TEST174</t>
+  </si>
+  <si>
+    <t>TEST175</t>
+  </si>
+  <si>
+    <t>TEST176</t>
+  </si>
+  <si>
+    <t>TEST177</t>
+  </si>
+  <si>
+    <t>TEST178</t>
+  </si>
+  <si>
+    <t>TEST179</t>
+  </si>
+  <si>
+    <t>TEST180</t>
+  </si>
+  <si>
+    <t>TEST181</t>
+  </si>
+  <si>
+    <t>TEST182</t>
+  </si>
+  <si>
+    <t>TEST183</t>
+  </si>
+  <si>
+    <t>TEST184</t>
+  </si>
+  <si>
+    <t>TEST185</t>
+  </si>
+  <si>
+    <t>TEST186</t>
+  </si>
+  <si>
+    <t>TEST187</t>
+  </si>
+  <si>
+    <t>TEST188</t>
+  </si>
+  <si>
+    <t>TEST189</t>
+  </si>
+  <si>
+    <t>TEST190</t>
+  </si>
+  <si>
+    <t>TEST191</t>
+  </si>
+  <si>
+    <t>TEST192</t>
+  </si>
+  <si>
+    <t>TEST193</t>
+  </si>
+  <si>
+    <t>TEST194</t>
+  </si>
+  <si>
+    <t>TEST195</t>
+  </si>
+  <si>
+    <t>TEST196</t>
+  </si>
+  <si>
+    <t>TEST197</t>
+  </si>
+  <si>
+    <t>TEST198</t>
+  </si>
+  <si>
+    <t>TEST199</t>
+  </si>
+  <si>
+    <t>TEST200</t>
+  </si>
+  <si>
+    <t>TEST201</t>
+  </si>
+  <si>
+    <t>TEST202</t>
+  </si>
+  <si>
+    <t>TEST203</t>
+  </si>
+  <si>
+    <t>TEST204</t>
+  </si>
+  <si>
+    <t>TEST205</t>
+  </si>
+  <si>
+    <t>TEST206</t>
+  </si>
+  <si>
+    <t>TEST207</t>
+  </si>
+  <si>
+    <t>TEST208</t>
+  </si>
+  <si>
+    <t>TEST209</t>
+  </si>
+  <si>
+    <t>TEST210</t>
+  </si>
+  <si>
+    <t>TEST211</t>
+  </si>
+  <si>
+    <t>TEST212</t>
+  </si>
+  <si>
+    <t>TEST213</t>
+  </si>
+  <si>
+    <t>TEST214</t>
+  </si>
+  <si>
+    <t>TEST215</t>
+  </si>
+  <si>
+    <t>TEST216</t>
+  </si>
+  <si>
+    <t>TEST217</t>
+  </si>
+  <si>
+    <t>TEST218</t>
+  </si>
+  <si>
+    <t>TEST219</t>
+  </si>
+  <si>
+    <t>TEST220</t>
+  </si>
+  <si>
+    <t>TEST221</t>
+  </si>
+  <si>
+    <t>TEST222</t>
+  </si>
+  <si>
+    <t>TEST223</t>
+  </si>
+  <si>
+    <t>TEST224</t>
+  </si>
+  <si>
+    <t>TEST225</t>
+  </si>
+  <si>
+    <t>TEST226</t>
+  </si>
+  <si>
+    <t>TEST227</t>
+  </si>
+  <si>
+    <t>TEST228</t>
+  </si>
+  <si>
+    <t>TEST229</t>
+  </si>
+  <si>
+    <t>TEST230</t>
+  </si>
+  <si>
+    <t>TEST231</t>
+  </si>
+  <si>
+    <t>TEST232</t>
+  </si>
+  <si>
+    <t>TEST233</t>
+  </si>
+  <si>
+    <t>TEST234</t>
+  </si>
+  <si>
+    <t>TEST235</t>
+  </si>
+  <si>
+    <t>TEST236</t>
+  </si>
+  <si>
+    <t>TEST237</t>
+  </si>
+  <si>
+    <t>TEST238</t>
+  </si>
+  <si>
+    <t>TEST239</t>
+  </si>
+  <si>
+    <t>TEST240</t>
+  </si>
+  <si>
+    <t>TEST241</t>
+  </si>
+  <si>
+    <t>TEST242</t>
+  </si>
+  <si>
+    <t>TEST243</t>
+  </si>
+  <si>
+    <t>TEST244</t>
+  </si>
+  <si>
+    <t>TEST245</t>
+  </si>
+  <si>
+    <t>TEST246</t>
+  </si>
+  <si>
+    <t>TEST247</t>
+  </si>
+  <si>
+    <t>TEST248</t>
+  </si>
+  <si>
+    <t>TEST249</t>
+  </si>
+  <si>
+    <t>TEST250</t>
+  </si>
+  <si>
+    <t>TEST251</t>
+  </si>
+  <si>
+    <t>TEST252</t>
+  </si>
+  <si>
+    <t>TEST253</t>
+  </si>
+  <si>
+    <t>TEST254</t>
+  </si>
+  <si>
+    <t>TEST255</t>
+  </si>
+  <si>
+    <t>TEST256</t>
+  </si>
+  <si>
+    <t>TEST257</t>
+  </si>
+  <si>
+    <t>TEST258</t>
+  </si>
+  <si>
+    <t>TEST259</t>
+  </si>
+  <si>
+    <t>TEST260</t>
+  </si>
+  <si>
+    <t>TEST261</t>
+  </si>
+  <si>
+    <t>TEST262</t>
+  </si>
+  <si>
+    <t>TEST263</t>
+  </si>
+  <si>
+    <t>TEST264</t>
+  </si>
+  <si>
+    <t>TEST265</t>
+  </si>
+  <si>
+    <t>TEST266</t>
+  </si>
+  <si>
+    <t>TEST267</t>
+  </si>
+  <si>
+    <t>TEST268</t>
+  </si>
+  <si>
+    <t>TEST269</t>
+  </si>
+  <si>
+    <t>TEST270</t>
+  </si>
+  <si>
+    <t>TEST271</t>
+  </si>
+  <si>
+    <t>TEST272</t>
+  </si>
+  <si>
+    <t>TEST273</t>
+  </si>
+  <si>
+    <t>TEST274</t>
+  </si>
+  <si>
+    <t>TEST275</t>
+  </si>
+  <si>
+    <t>TEST276</t>
+  </si>
+  <si>
+    <t>TEST277</t>
+  </si>
+  <si>
+    <t>TEST278</t>
+  </si>
+  <si>
+    <t>TEST279</t>
+  </si>
+  <si>
+    <t>TEST280</t>
+  </si>
+  <si>
+    <t>TEST281</t>
+  </si>
+  <si>
+    <t>TEST282</t>
+  </si>
+  <si>
+    <t>TEST283</t>
+  </si>
+  <si>
+    <t>TEST284</t>
+  </si>
+  <si>
+    <t>TEST285</t>
+  </si>
+  <si>
+    <t>TEST286</t>
+  </si>
+  <si>
+    <t>TEST287</t>
+  </si>
+  <si>
+    <t>TEST288</t>
+  </si>
+  <si>
+    <t>TEST289</t>
+  </si>
+  <si>
+    <t>TEST290</t>
+  </si>
+  <si>
+    <t>TEST291</t>
+  </si>
+  <si>
+    <t>TEST292</t>
+  </si>
+  <si>
+    <t>TEST293</t>
+  </si>
+  <si>
+    <t>TEST294</t>
+  </si>
+  <si>
+    <t>TEST295</t>
+  </si>
+  <si>
+    <t>TEST296</t>
+  </si>
+  <si>
+    <t>TEST297</t>
+  </si>
+  <si>
+    <t>TEST298</t>
+  </si>
+  <si>
+    <t>TEST299</t>
+  </si>
+  <si>
+    <t>TEST300</t>
+  </si>
+  <si>
+    <t>TEST301</t>
+  </si>
+  <si>
+    <t>TEST302</t>
+  </si>
+  <si>
+    <t>TEST303</t>
+  </si>
+  <si>
+    <t>TEST304</t>
+  </si>
+  <si>
+    <t>TEST305</t>
+  </si>
+  <si>
+    <t>TEST306</t>
+  </si>
+  <si>
+    <t>TEST307</t>
+  </si>
+  <si>
+    <t>TEST308</t>
+  </si>
+  <si>
+    <t>TEST309</t>
+  </si>
+  <si>
+    <t>TEST310</t>
+  </si>
+  <si>
+    <t>TEST311</t>
+  </si>
+  <si>
+    <t>TEST312</t>
+  </si>
+  <si>
+    <t>TEST313</t>
+  </si>
+  <si>
+    <t>TEST314</t>
+  </si>
+  <si>
+    <t>TEST315</t>
+  </si>
+  <si>
+    <t>TEST316</t>
+  </si>
+  <si>
+    <t>TEST317</t>
+  </si>
+  <si>
+    <t>TEST318</t>
+  </si>
+  <si>
+    <t>TEST319</t>
+  </si>
+  <si>
+    <t>TEST320</t>
+  </si>
+  <si>
+    <t>TEST321</t>
+  </si>
+  <si>
+    <t>TEST322</t>
+  </si>
+  <si>
+    <t>TEST323</t>
+  </si>
+  <si>
+    <t>TEST324</t>
+  </si>
+  <si>
+    <t>TEST325</t>
+  </si>
+  <si>
+    <t>TEST326</t>
+  </si>
+  <si>
+    <t>TEST327</t>
+  </si>
+  <si>
+    <t>TEST328</t>
+  </si>
+  <si>
+    <t>TEST329</t>
+  </si>
+  <si>
+    <t>TEST330</t>
+  </si>
+  <si>
+    <t>TEST331</t>
+  </si>
+  <si>
+    <t>TEST332</t>
+  </si>
+  <si>
+    <t>TEST333</t>
+  </si>
+  <si>
+    <t>TEST334</t>
+  </si>
+  <si>
+    <t>TEST335</t>
+  </si>
+  <si>
+    <t>TEST336</t>
+  </si>
+  <si>
+    <t>TEST337</t>
+  </si>
+  <si>
+    <t>TEST338</t>
+  </si>
+  <si>
+    <t>TEST339</t>
+  </si>
+  <si>
+    <t>TEST340</t>
+  </si>
+  <si>
+    <t>TEST341</t>
+  </si>
+  <si>
+    <t>TEST342</t>
+  </si>
+  <si>
+    <t>TEST343</t>
+  </si>
+  <si>
+    <t>TEST344</t>
+  </si>
+  <si>
+    <t>TEST345</t>
+  </si>
+  <si>
+    <t>TEST346</t>
+  </si>
+  <si>
+    <t>TEST347</t>
+  </si>
+  <si>
+    <t>TEST348</t>
+  </si>
+  <si>
+    <t>TEST349</t>
+  </si>
+  <si>
+    <t>TEST350</t>
+  </si>
+  <si>
+    <t>TEST351</t>
+  </si>
+  <si>
+    <t>TEST352</t>
+  </si>
+  <si>
+    <t>TEST353</t>
+  </si>
+  <si>
+    <t>TEST354</t>
+  </si>
+  <si>
+    <t>TEST355</t>
+  </si>
+  <si>
+    <t>TEST356</t>
+  </si>
+  <si>
+    <t>TEST357</t>
+  </si>
+  <si>
+    <t>TEST358</t>
+  </si>
+  <si>
+    <t>TEST359</t>
+  </si>
+  <si>
+    <t>TEST360</t>
+  </si>
+  <si>
+    <t>TEST361</t>
+  </si>
+  <si>
+    <t>TEST362</t>
+  </si>
+  <si>
+    <t>TEST363</t>
+  </si>
+  <si>
+    <t>TEST364</t>
+  </si>
+  <si>
+    <t>TEST365</t>
+  </si>
+  <si>
+    <t>TEST366</t>
+  </si>
+  <si>
+    <t>TEST367</t>
+  </si>
+  <si>
+    <t>TEST368</t>
+  </si>
+  <si>
+    <t>TEST369</t>
+  </si>
+  <si>
+    <t>TEST370</t>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0E3009BX03</t>
+  </si>
+  <si>
+    <t>NS6</t>
+  </si>
+  <si>
+    <t>Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0F3002BX03</t>
+  </si>
+  <si>
+    <t>NS5</t>
+  </si>
+  <si>
+    <t>D0F3008BX03</t>
+  </si>
+  <si>
+    <t>D0F3014BX03</t>
+  </si>
+  <si>
+    <t>D0P3002BX03</t>
+  </si>
+  <si>
+    <t>D0P3003BX03</t>
+  </si>
+  <si>
+    <t>D0P3004BX03</t>
+  </si>
+  <si>
+    <t>D0R3001BX03</t>
+  </si>
+  <si>
+    <t>D0R3002BX03</t>
+  </si>
+  <si>
+    <t>D0S3001BX03</t>
+  </si>
+  <si>
+    <t>D0S3007BX03</t>
+  </si>
+  <si>
+    <t>D1H3002BX03</t>
+  </si>
+  <si>
+    <t>D353027BX03</t>
+  </si>
+  <si>
+    <t>D883004BX03</t>
+  </si>
+  <si>
+    <t>D0E3002BX03</t>
+  </si>
+  <si>
+    <t>NS5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1V3001BX03</t>
+  </si>
+  <si>
+    <t>D0F3004BX03</t>
+  </si>
+  <si>
+    <t>NS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D283044BX03</t>
+  </si>
+  <si>
+    <t>NS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1K3001BX03</t>
+  </si>
+  <si>
+    <t>N0R3201BX03</t>
+  </si>
+  <si>
+    <t>N0S2106BX03</t>
+  </si>
+  <si>
+    <t>D1J3002BX03</t>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆工的需要维护 Team 与 LOB的对应关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan ISF Truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF HWY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import Truck</t>
+  </si>
+  <si>
+    <t>Import Bus</t>
+  </si>
+  <si>
+    <t>Import CWI Nature Gas Bus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +2299,27 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1112,10 +2376,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1125,9 +2392,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E2DC3157-EDCC-4548-85D4-350D907C47DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1405,11 +2679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E371"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="A2:E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1425,7 +2699,7 @@
     <col min="10" max="10" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>296</v>
       </c>
@@ -1441,8 +2715,11 @@
       <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +2735,11 @@
       <c r="E2" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +2755,11 @@
       <c r="E3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1492,8 +2775,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1509,8 +2795,11 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1526,8 +2815,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +2835,11 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -1560,8 +2855,11 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1577,8 +2875,11 @@
       <c r="E9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1594,8 +2895,11 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +2915,11 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1628,8 +2935,11 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +2955,11 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1662,8 +2975,11 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1679,8 +2995,11 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1696,8 +3015,11 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1713,8 +3035,11 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1730,8 +3055,11 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1747,8 +3075,11 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1764,8 +3095,11 @@
       <c r="E20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1781,8 +3115,11 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1798,8 +3135,11 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1815,8 +3155,11 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1832,8 +3175,11 @@
       <c r="E24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +3195,11 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1866,8 +3215,11 @@
       <c r="E26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1883,8 +3235,11 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1900,8 +3255,11 @@
       <c r="E28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1917,8 +3275,11 @@
       <c r="E29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1934,8 +3295,11 @@
       <c r="E30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1951,8 +3315,11 @@
       <c r="E31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1968,8 +3335,11 @@
       <c r="E32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1985,8 +3355,11 @@
       <c r="E33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2002,8 +3375,11 @@
       <c r="E34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2019,8 +3395,11 @@
       <c r="E35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2036,8 +3415,11 @@
       <c r="E36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2053,8 +3435,11 @@
       <c r="E37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2070,8 +3455,11 @@
       <c r="E38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2087,8 +3475,11 @@
       <c r="E39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +3495,11 @@
       <c r="E40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2121,8 +3515,11 @@
       <c r="E41" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2138,8 +3535,11 @@
       <c r="E42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2155,8 +3555,11 @@
       <c r="E43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2172,8 +3575,11 @@
       <c r="E44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2189,8 +3595,11 @@
       <c r="E45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2206,8 +3615,11 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2223,8 +3635,11 @@
       <c r="E47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2240,8 +3655,11 @@
       <c r="E48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2257,8 +3675,11 @@
       <c r="E49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2274,8 +3695,11 @@
       <c r="E50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2291,8 +3715,11 @@
       <c r="E51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2308,8 +3735,11 @@
       <c r="E52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2325,8 +3755,11 @@
       <c r="E53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2342,8 +3775,11 @@
       <c r="E54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2359,8 +3795,11 @@
       <c r="E55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2376,13 +3815,16 @@
       <c r="E56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -2393,8 +3835,11 @@
       <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2410,8 +3855,11 @@
       <c r="E58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2427,8 +3875,11 @@
       <c r="E59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2444,8 +3895,11 @@
       <c r="E60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2461,8 +3915,11 @@
       <c r="E61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2478,8 +3935,11 @@
       <c r="E62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2495,8 +3955,11 @@
       <c r="E63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2512,8 +3975,11 @@
       <c r="E64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2529,8 +3995,11 @@
       <c r="E65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2546,8 +4015,11 @@
       <c r="E66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2563,8 +4035,11 @@
       <c r="E67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2580,8 +4055,11 @@
       <c r="E68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2597,8 +4075,11 @@
       <c r="E69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2614,8 +4095,11 @@
       <c r="E70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2631,8 +4115,11 @@
       <c r="E71" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2648,8 +4135,11 @@
       <c r="E72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2665,8 +4155,11 @@
       <c r="E73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2682,8 +4175,11 @@
       <c r="E74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2699,8 +4195,11 @@
       <c r="E75" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2716,8 +4215,11 @@
       <c r="E76" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2733,8 +4235,11 @@
       <c r="E77" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2750,8 +4255,11 @@
       <c r="E78" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2767,8 +4275,11 @@
       <c r="E79" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2784,8 +4295,11 @@
       <c r="E80" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2801,8 +4315,11 @@
       <c r="E81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2818,8 +4335,11 @@
       <c r="E82" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2835,8 +4355,11 @@
       <c r="E83" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2852,8 +4375,11 @@
       <c r="E84" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2869,8 +4395,11 @@
       <c r="E85" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2886,8 +4415,11 @@
       <c r="E86" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2903,8 +4435,11 @@
       <c r="E87" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2920,8 +4455,11 @@
       <c r="E88" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2937,8 +4475,11 @@
       <c r="E89" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2954,8 +4495,11 @@
       <c r="E90" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2971,8 +4515,11 @@
       <c r="E91" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +4535,11 @@
       <c r="E92" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3005,8 +4555,11 @@
       <c r="E93" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3022,8 +4575,11 @@
       <c r="E94" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3039,8 +4595,11 @@
       <c r="E95" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3056,8 +4615,11 @@
       <c r="E96" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3073,8 +4635,11 @@
       <c r="E97" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3090,8 +4655,11 @@
       <c r="E98" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3107,8 +4675,11 @@
       <c r="E99" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3124,8 +4695,11 @@
       <c r="E100" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3141,8 +4715,11 @@
       <c r="E101" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3158,8 +4735,11 @@
       <c r="E102" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3175,8 +4755,11 @@
       <c r="E103" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3192,8 +4775,11 @@
       <c r="E104" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3209,8 +4795,11 @@
       <c r="E105" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3226,8 +4815,11 @@
       <c r="E106" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3243,8 +4835,11 @@
       <c r="E107" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3260,8 +4855,11 @@
       <c r="E108" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3277,8 +4875,11 @@
       <c r="E109" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3294,8 +4895,11 @@
       <c r="E110" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3311,8 +4915,11 @@
       <c r="E111" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3328,8 +4935,11 @@
       <c r="E112" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3345,8 +4955,11 @@
       <c r="E113" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3362,8 +4975,11 @@
       <c r="E114" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3379,8 +4995,11 @@
       <c r="E115" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3396,8 +5015,11 @@
       <c r="E116" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3413,8 +5035,11 @@
       <c r="E117" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3430,8 +5055,11 @@
       <c r="E118" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3447,8 +5075,11 @@
       <c r="E119" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3464,8 +5095,11 @@
       <c r="E120" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3481,8 +5115,11 @@
       <c r="E121" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3498,8 +5135,11 @@
       <c r="E122" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3515,8 +5155,11 @@
       <c r="E123" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -3532,8 +5175,11 @@
       <c r="E124" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -3549,8 +5195,11 @@
       <c r="E125" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -3566,8 +5215,11 @@
       <c r="E126" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3583,8 +5235,11 @@
       <c r="E127" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -3600,8 +5255,11 @@
       <c r="E128" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -3617,8 +5275,11 @@
       <c r="E129" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -3634,8 +5295,11 @@
       <c r="E130" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -3651,8 +5315,11 @@
       <c r="E131" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -3668,8 +5335,11 @@
       <c r="E132" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -3685,8 +5355,11 @@
       <c r="E133" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -3702,8 +5375,11 @@
       <c r="E134" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -3719,8 +5395,11 @@
       <c r="E135" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -3736,8 +5415,11 @@
       <c r="E136" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -3753,8 +5435,11 @@
       <c r="E137" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -3770,8 +5455,11 @@
       <c r="E138" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -3787,8 +5475,11 @@
       <c r="E139" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3804,8 +5495,11 @@
       <c r="E140" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3821,8 +5515,11 @@
       <c r="E141" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -3838,8 +5535,11 @@
       <c r="E142" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -3855,8 +5555,11 @@
       <c r="E143" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -3872,8 +5575,11 @@
       <c r="E144" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3889,8 +5595,11 @@
       <c r="E145" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -3906,8 +5615,11 @@
       <c r="E146" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -3923,8 +5635,11 @@
       <c r="E147" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -3940,8 +5655,11 @@
       <c r="E148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -3957,8 +5675,11 @@
       <c r="E149" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -3974,8 +5695,11 @@
       <c r="E150" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3991,8 +5715,11 @@
       <c r="E151" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4008,8 +5735,11 @@
       <c r="E152" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4025,8 +5755,11 @@
       <c r="E153" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -4042,8 +5775,11 @@
       <c r="E154" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -4059,8 +5795,11 @@
       <c r="E155" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -4076,8 +5815,11 @@
       <c r="E156" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4093,8 +5835,11 @@
       <c r="E157" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -4110,8 +5855,11 @@
       <c r="E158" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -4127,8 +5875,11 @@
       <c r="E159" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -4144,8 +5895,11 @@
       <c r="E160" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -4161,8 +5915,11 @@
       <c r="E161" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -4178,8 +5935,11 @@
       <c r="E162" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4195,8 +5955,11 @@
       <c r="E163" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -4212,8 +5975,11 @@
       <c r="E164" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -4229,8 +5995,11 @@
       <c r="E165" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -4246,8 +6015,11 @@
       <c r="E166" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -4263,8 +6035,11 @@
       <c r="E167" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -4280,8 +6055,11 @@
       <c r="E168" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4297,8 +6075,11 @@
       <c r="E169" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -4314,8 +6095,11 @@
       <c r="E170" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -4331,8 +6115,11 @@
       <c r="E171" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -4348,8 +6135,11 @@
       <c r="E172" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -4365,8 +6155,11 @@
       <c r="E173" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4382,8 +6175,11 @@
       <c r="E174" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -4399,8 +6195,11 @@
       <c r="E175" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -4416,8 +6215,11 @@
       <c r="E176" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -4433,8 +6235,11 @@
       <c r="E177" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -4450,8 +6255,11 @@
       <c r="E178" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -4467,8 +6275,11 @@
       <c r="E179" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -4484,8 +6295,11 @@
       <c r="E180" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -4501,8 +6315,11 @@
       <c r="E181" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -4518,8 +6335,11 @@
       <c r="E182" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -4535,8 +6355,11 @@
       <c r="E183" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -4552,8 +6375,11 @@
       <c r="E184" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -4569,8 +6395,11 @@
       <c r="E185" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -4586,8 +6415,11 @@
       <c r="E186" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -4603,8 +6435,11 @@
       <c r="E187" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -4620,8 +6455,11 @@
       <c r="E188" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -4637,8 +6475,11 @@
       <c r="E189" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -4654,8 +6495,11 @@
       <c r="E190" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -4671,8 +6515,11 @@
       <c r="E191" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -4688,8 +6535,11 @@
       <c r="E192" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -4705,8 +6555,11 @@
       <c r="E193" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -4714,7 +6567,7 @@
         <v>136</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>5</v>
@@ -4722,8 +6575,11 @@
       <c r="E194" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -4739,8 +6595,11 @@
       <c r="E195" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -4756,8 +6615,11 @@
       <c r="E196" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -4773,8 +6635,11 @@
       <c r="E197" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -4790,8 +6655,11 @@
       <c r="E198" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -4807,8 +6675,11 @@
       <c r="E199" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -4824,8 +6695,11 @@
       <c r="E200" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -4841,8 +6715,11 @@
       <c r="E201" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -4858,8 +6735,11 @@
       <c r="E202" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -4875,8 +6755,11 @@
       <c r="E203" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -4892,8 +6775,11 @@
       <c r="E204" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -4909,8 +6795,11 @@
       <c r="E205" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -4926,8 +6815,11 @@
       <c r="E206" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4943,8 +6835,11 @@
       <c r="E207" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -4960,8 +6855,11 @@
       <c r="E208" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -4977,8 +6875,11 @@
       <c r="E209" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -4994,8 +6895,11 @@
       <c r="E210" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -5011,8 +6915,11 @@
       <c r="E211" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -5028,8 +6935,11 @@
       <c r="E212" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -5045,8 +6955,11 @@
       <c r="E213" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -5062,8 +6975,11 @@
       <c r="E214" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -5079,8 +6995,11 @@
       <c r="E215" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -5096,8 +7015,11 @@
       <c r="E216" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -5113,8 +7035,11 @@
       <c r="E217" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -5130,8 +7055,11 @@
       <c r="E218" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -5147,8 +7075,11 @@
       <c r="E219" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -5164,8 +7095,11 @@
       <c r="E220" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -5181,8 +7115,11 @@
       <c r="E221" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -5198,8 +7135,11 @@
       <c r="E222" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -5215,8 +7155,11 @@
       <c r="E223" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -5232,8 +7175,11 @@
       <c r="E224" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -5249,8 +7195,11 @@
       <c r="E225" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>193</v>
       </c>
@@ -5263,8 +7212,11 @@
       <c r="E226" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>193</v>
       </c>
@@ -5280,8 +7232,11 @@
       <c r="E227" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>193</v>
       </c>
@@ -5294,8 +7249,11 @@
       <c r="E228" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>193</v>
       </c>
@@ -5308,8 +7266,11 @@
       <c r="E229" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>193</v>
       </c>
@@ -5322,8 +7283,11 @@
       <c r="E230" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>193</v>
       </c>
@@ -5336,8 +7300,11 @@
       <c r="E231" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>193</v>
       </c>
@@ -5350,8 +7317,11 @@
       <c r="E232" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>193</v>
       </c>
@@ -5367,8 +7337,11 @@
       <c r="E233" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>193</v>
       </c>
@@ -5384,8 +7357,11 @@
       <c r="E234" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>193</v>
       </c>
@@ -5401,8 +7377,11 @@
       <c r="E235" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>193</v>
       </c>
@@ -5418,8 +7397,11 @@
       <c r="E236" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>193</v>
       </c>
@@ -5435,8 +7417,11 @@
       <c r="E237" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>193</v>
       </c>
@@ -5452,8 +7437,11 @@
       <c r="E238" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>193</v>
       </c>
@@ -5469,8 +7457,11 @@
       <c r="E239" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>193</v>
       </c>
@@ -5486,8 +7477,11 @@
       <c r="E240" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>193</v>
       </c>
@@ -5503,8 +7497,11 @@
       <c r="E241" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>193</v>
       </c>
@@ -5520,8 +7517,11 @@
       <c r="E242" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>193</v>
       </c>
@@ -5537,8 +7537,11 @@
       <c r="E243" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>193</v>
       </c>
@@ -5554,8 +7557,11 @@
       <c r="E244" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>193</v>
       </c>
@@ -5571,8 +7577,11 @@
       <c r="E245" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>193</v>
       </c>
@@ -5588,8 +7597,11 @@
       <c r="E246" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>193</v>
       </c>
@@ -5605,8 +7617,11 @@
       <c r="E247" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>193</v>
       </c>
@@ -5622,8 +7637,11 @@
       <c r="E248" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>193</v>
       </c>
@@ -5639,8 +7657,11 @@
       <c r="E249" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>193</v>
       </c>
@@ -5656,8 +7677,11 @@
       <c r="E250" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>193</v>
       </c>
@@ -5673,8 +7697,11 @@
       <c r="E251" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>193</v>
       </c>
@@ -5690,8 +7717,11 @@
       <c r="E252" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>193</v>
       </c>
@@ -5707,8 +7737,11 @@
       <c r="E253" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>193</v>
       </c>
@@ -5724,8 +7757,11 @@
       <c r="E254" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>193</v>
       </c>
@@ -5741,8 +7777,11 @@
       <c r="E255" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>193</v>
       </c>
@@ -5758,8 +7797,11 @@
       <c r="E256" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>193</v>
       </c>
@@ -5775,8 +7817,11 @@
       <c r="E257" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>193</v>
       </c>
@@ -5792,8 +7837,11 @@
       <c r="E258" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>193</v>
       </c>
@@ -5809,8 +7857,11 @@
       <c r="E259" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>193</v>
       </c>
@@ -5826,8 +7877,11 @@
       <c r="E260" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>193</v>
       </c>
@@ -5843,8 +7897,11 @@
       <c r="E261" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>193</v>
       </c>
@@ -5860,8 +7917,11 @@
       <c r="E262" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>193</v>
       </c>
@@ -5877,8 +7937,11 @@
       <c r="E263" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>193</v>
       </c>
@@ -5894,8 +7957,11 @@
       <c r="E264" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>193</v>
       </c>
@@ -5911,8 +7977,11 @@
       <c r="E265" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>193</v>
       </c>
@@ -5928,8 +7997,11 @@
       <c r="E266" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>193</v>
       </c>
@@ -5945,8 +8017,11 @@
       <c r="E267" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>193</v>
       </c>
@@ -5962,8 +8037,11 @@
       <c r="E268" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>193</v>
       </c>
@@ -5979,8 +8057,11 @@
       <c r="E269" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>193</v>
       </c>
@@ -5996,8 +8077,11 @@
       <c r="E270" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>193</v>
       </c>
@@ -6013,8 +8097,11 @@
       <c r="E271" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>193</v>
       </c>
@@ -6030,8 +8117,11 @@
       <c r="E272" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>193</v>
       </c>
@@ -6047,8 +8137,11 @@
       <c r="E273" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>193</v>
       </c>
@@ -6064,8 +8157,11 @@
       <c r="E274" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>193</v>
       </c>
@@ -6081,8 +8177,11 @@
       <c r="E275" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>193</v>
       </c>
@@ -6098,8 +8197,11 @@
       <c r="E276" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>193</v>
       </c>
@@ -6115,8 +8217,11 @@
       <c r="E277" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>193</v>
       </c>
@@ -6132,8 +8237,11 @@
       <c r="E278" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>193</v>
       </c>
@@ -6149,8 +8257,11 @@
       <c r="E279" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>193</v>
       </c>
@@ -6166,8 +8277,11 @@
       <c r="E280" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>193</v>
       </c>
@@ -6183,8 +8297,11 @@
       <c r="E281" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>193</v>
       </c>
@@ -6200,8 +8317,11 @@
       <c r="E282" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>193</v>
       </c>
@@ -6217,8 +8337,11 @@
       <c r="E283" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>193</v>
       </c>
@@ -6234,8 +8357,11 @@
       <c r="E284" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>193</v>
       </c>
@@ -6251,8 +8377,11 @@
       <c r="E285" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>193</v>
       </c>
@@ -6268,8 +8397,11 @@
       <c r="E286" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>193</v>
       </c>
@@ -6285,8 +8417,11 @@
       <c r="E287" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>193</v>
       </c>
@@ -6302,8 +8437,11 @@
       <c r="E288" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>193</v>
       </c>
@@ -6319,8 +8457,11 @@
       <c r="E289" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>193</v>
       </c>
@@ -6336,8 +8477,11 @@
       <c r="E290" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -6353,8 +8497,11 @@
       <c r="E291" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>193</v>
       </c>
@@ -6370,8 +8517,11 @@
       <c r="E292" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -6387,8 +8537,11 @@
       <c r="E293" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>193</v>
       </c>
@@ -6404,8 +8557,11 @@
       <c r="E294" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>193</v>
       </c>
@@ -6421,8 +8577,11 @@
       <c r="E295" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>193</v>
       </c>
@@ -6438,8 +8597,11 @@
       <c r="E296" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>193</v>
       </c>
@@ -6455,8 +8617,11 @@
       <c r="E297" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>193</v>
       </c>
@@ -6472,8 +8637,11 @@
       <c r="E298" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>193</v>
       </c>
@@ -6489,8 +8657,11 @@
       <c r="E299" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>193</v>
       </c>
@@ -6506,8 +8677,11 @@
       <c r="E300" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>193</v>
       </c>
@@ -6523,8 +8697,11 @@
       <c r="E301" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>193</v>
       </c>
@@ -6540,8 +8717,11 @@
       <c r="E302" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>193</v>
       </c>
@@ -6557,8 +8737,11 @@
       <c r="E303" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>193</v>
       </c>
@@ -6574,8 +8757,11 @@
       <c r="E304" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>193</v>
       </c>
@@ -6591,8 +8777,11 @@
       <c r="E305" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>193</v>
       </c>
@@ -6608,8 +8797,11 @@
       <c r="E306" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>193</v>
       </c>
@@ -6625,8 +8817,11 @@
       <c r="E307" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -6642,8 +8837,11 @@
       <c r="E308" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>193</v>
       </c>
@@ -6659,8 +8857,11 @@
       <c r="E309" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="F309" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>193</v>
       </c>
@@ -6676,8 +8877,11 @@
       <c r="E310" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="F310" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>193</v>
       </c>
@@ -6693,8 +8897,11 @@
       <c r="E311" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="F311" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>193</v>
       </c>
@@ -6710,8 +8917,11 @@
       <c r="E312" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="F312" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>193</v>
       </c>
@@ -6727,8 +8937,11 @@
       <c r="E313" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="F313" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>193</v>
       </c>
@@ -6744,8 +8957,11 @@
       <c r="E314" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="F314" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>193</v>
       </c>
@@ -6761,8 +8977,11 @@
       <c r="E315" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="F315" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>193</v>
       </c>
@@ -6778,8 +8997,11 @@
       <c r="E316" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="F316" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>193</v>
       </c>
@@ -6795,8 +9017,11 @@
       <c r="E317" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="F317" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>193</v>
       </c>
@@ -6812,8 +9037,11 @@
       <c r="E318" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="F318" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>193</v>
       </c>
@@ -6821,7 +9049,7 @@
         <v>136</v>
       </c>
       <c r="C319" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -6829,8 +9057,11 @@
       <c r="E319" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="F319" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>193</v>
       </c>
@@ -6846,8 +9077,11 @@
       <c r="E320" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="F320" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>193</v>
       </c>
@@ -6863,8 +9097,11 @@
       <c r="E321" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="F321" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>193</v>
       </c>
@@ -6880,8 +9117,11 @@
       <c r="E322" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="F322" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>193</v>
       </c>
@@ -6897,8 +9137,11 @@
       <c r="E323" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="F323" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>193</v>
       </c>
@@ -6914,8 +9157,11 @@
       <c r="E324" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="F324" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>193</v>
       </c>
@@ -6931,8 +9177,11 @@
       <c r="E325" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="F325" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>193</v>
       </c>
@@ -6948,8 +9197,11 @@
       <c r="E326" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="F326" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>193</v>
       </c>
@@ -6965,8 +9217,11 @@
       <c r="E327" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="F327" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>193</v>
       </c>
@@ -6982,8 +9237,11 @@
       <c r="E328" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="F328" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>193</v>
       </c>
@@ -6999,8 +9257,11 @@
       <c r="E329" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="F329" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>193</v>
       </c>
@@ -7016,8 +9277,11 @@
       <c r="E330" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="F330" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>193</v>
       </c>
@@ -7033,8 +9297,11 @@
       <c r="E331" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="F331" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>193</v>
       </c>
@@ -7050,8 +9317,11 @@
       <c r="E332" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="F332" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>193</v>
       </c>
@@ -7067,8 +9337,11 @@
       <c r="E333" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="F333" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>193</v>
       </c>
@@ -7084,8 +9357,11 @@
       <c r="E334" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="F334" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>193</v>
       </c>
@@ -7101,8 +9377,11 @@
       <c r="E335" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="F335" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>193</v>
       </c>
@@ -7118,8 +9397,11 @@
       <c r="E336" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="F336" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>193</v>
       </c>
@@ -7135,8 +9417,11 @@
       <c r="E337" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="F337" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>193</v>
       </c>
@@ -7152,8 +9437,11 @@
       <c r="E338" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>193</v>
       </c>
@@ -7169,8 +9457,11 @@
       <c r="E339" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="F339" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>193</v>
       </c>
@@ -7186,8 +9477,11 @@
       <c r="E340" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="F340" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>193</v>
       </c>
@@ -7203,8 +9497,11 @@
       <c r="E341" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="F341" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>193</v>
       </c>
@@ -7220,8 +9517,11 @@
       <c r="E342" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="F342" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>193</v>
       </c>
@@ -7237,8 +9537,11 @@
       <c r="E343" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="F343" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>193</v>
       </c>
@@ -7254,8 +9557,11 @@
       <c r="E344" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="F344" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>193</v>
       </c>
@@ -7271,8 +9577,11 @@
       <c r="E345" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="F345" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>193</v>
       </c>
@@ -7288,8 +9597,11 @@
       <c r="E346" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="F346" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>193</v>
       </c>
@@ -7305,8 +9617,11 @@
       <c r="E347" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="F347" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>193</v>
       </c>
@@ -7322,8 +9637,11 @@
       <c r="E348" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="F348" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>193</v>
       </c>
@@ -7339,8 +9657,11 @@
       <c r="E349" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="F349" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>193</v>
       </c>
@@ -7356,8 +9677,11 @@
       <c r="E350" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="F350" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>193</v>
       </c>
@@ -7373,8 +9697,11 @@
       <c r="E351" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="F351" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>193</v>
       </c>
@@ -7390,8 +9717,11 @@
       <c r="E352" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="F352" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>193</v>
       </c>
@@ -7407,8 +9737,11 @@
       <c r="E353" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="F353" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>193</v>
       </c>
@@ -7424,8 +9757,11 @@
       <c r="E354" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="F354" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>193</v>
       </c>
@@ -7441,8 +9777,11 @@
       <c r="E355" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="F355" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>193</v>
       </c>
@@ -7458,8 +9797,11 @@
       <c r="E356" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="F356" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>193</v>
       </c>
@@ -7475,8 +9817,11 @@
       <c r="E357" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="F357" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>193</v>
       </c>
@@ -7492,8 +9837,11 @@
       <c r="E358" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="F358" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>193</v>
       </c>
@@ -7509,8 +9857,11 @@
       <c r="E359" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="F359" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>193</v>
       </c>
@@ -7526,8 +9877,11 @@
       <c r="E360" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="F360" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>193</v>
       </c>
@@ -7543,8 +9897,11 @@
       <c r="E361" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="F361" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>193</v>
       </c>
@@ -7560,8 +9917,11 @@
       <c r="E362" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="F362" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>193</v>
       </c>
@@ -7577,8 +9937,11 @@
       <c r="E363" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="F363" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>193</v>
       </c>
@@ -7594,8 +9957,11 @@
       <c r="E364" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="F364" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>193</v>
       </c>
@@ -7611,8 +9977,11 @@
       <c r="E365" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="F365" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>193</v>
       </c>
@@ -7628,8 +9997,11 @@
       <c r="E366" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="F366" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>193</v>
       </c>
@@ -7645,8 +10017,11 @@
       <c r="E367" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="F367" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>193</v>
       </c>
@@ -7662,8 +10037,11 @@
       <c r="E368" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="F368" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>193</v>
       </c>
@@ -7679,8 +10057,11 @@
       <c r="E369" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="F369" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>301</v>
       </c>
@@ -7696,8 +10077,11 @@
       <c r="E370" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="F370" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" s="2" t="s">
         <v>301</v>
       </c>
@@ -7705,13 +10089,16 @@
         <v>302</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>304</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>307</v>
+        <v>726</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -7729,75 +10116,652 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D428A3-7B3F-4319-B63F-5C84320A0BE9}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>728</v>
+      </c>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>729</v>
+      </c>
+      <c r="B17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EDD7E8-E39D-4D92-8806-8EF22EE83147}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C25" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>720</v>
+      </c>
+      <c r="B28" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>721</v>
+      </c>
+      <c r="B29" t="s">
+        <v>719</v>
+      </c>
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>722</v>
+      </c>
+      <c r="B30" t="s">
+        <v>719</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>723</v>
+      </c>
+      <c r="B31" t="s">
+        <v>719</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA542F2-118D-4E7D-A024-BF8AC11773B4}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="111.25" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
         <v>316</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>317</v>
       </c>
-      <c r="C1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
         <v>314</v>
       </c>
-      <c r="C4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
+++ b/my-python-code/DataProcess/DESA/TeamTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcess\DESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813DC3B-2B03-4DCA-B5B4-BFB8D86462EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D618631-4D88-49C2-8F28-FE6A64CD9DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="363">
   <si>
     <t>Domestic</t>
   </si>
@@ -1029,1117 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST4</t>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>TEST8</t>
-  </si>
-  <si>
-    <t>TEST9</t>
-  </si>
-  <si>
-    <t>TEST10</t>
-  </si>
-  <si>
-    <t>TEST11</t>
-  </si>
-  <si>
-    <t>TEST12</t>
-  </si>
-  <si>
-    <t>TEST13</t>
-  </si>
-  <si>
-    <t>TEST14</t>
-  </si>
-  <si>
-    <t>TEST15</t>
-  </si>
-  <si>
-    <t>TEST16</t>
-  </si>
-  <si>
-    <t>TEST17</t>
-  </si>
-  <si>
-    <t>TEST18</t>
-  </si>
-  <si>
-    <t>TEST19</t>
-  </si>
-  <si>
-    <t>TEST20</t>
-  </si>
-  <si>
-    <t>TEST21</t>
-  </si>
-  <si>
-    <t>TEST22</t>
-  </si>
-  <si>
-    <t>TEST23</t>
-  </si>
-  <si>
-    <t>TEST24</t>
-  </si>
-  <si>
-    <t>TEST25</t>
-  </si>
-  <si>
-    <t>TEST26</t>
-  </si>
-  <si>
-    <t>TEST27</t>
-  </si>
-  <si>
-    <t>TEST28</t>
-  </si>
-  <si>
-    <t>TEST29</t>
-  </si>
-  <si>
-    <t>TEST30</t>
-  </si>
-  <si>
-    <t>TEST31</t>
-  </si>
-  <si>
-    <t>TEST32</t>
-  </si>
-  <si>
-    <t>TEST33</t>
-  </si>
-  <si>
-    <t>TEST34</t>
-  </si>
-  <si>
-    <t>TEST35</t>
-  </si>
-  <si>
-    <t>TEST36</t>
-  </si>
-  <si>
-    <t>TEST37</t>
-  </si>
-  <si>
-    <t>TEST38</t>
-  </si>
-  <si>
-    <t>TEST39</t>
-  </si>
-  <si>
-    <t>TEST40</t>
-  </si>
-  <si>
-    <t>TEST41</t>
-  </si>
-  <si>
-    <t>TEST42</t>
-  </si>
-  <si>
-    <t>TEST43</t>
-  </si>
-  <si>
-    <t>TEST44</t>
-  </si>
-  <si>
-    <t>TEST45</t>
-  </si>
-  <si>
-    <t>TEST46</t>
-  </si>
-  <si>
-    <t>TEST47</t>
-  </si>
-  <si>
-    <t>TEST48</t>
-  </si>
-  <si>
-    <t>TEST49</t>
-  </si>
-  <si>
-    <t>TEST50</t>
-  </si>
-  <si>
-    <t>TEST51</t>
-  </si>
-  <si>
-    <t>TEST52</t>
-  </si>
-  <si>
-    <t>TEST53</t>
-  </si>
-  <si>
-    <t>TEST54</t>
-  </si>
-  <si>
-    <t>TEST55</t>
-  </si>
-  <si>
-    <t>TEST56</t>
-  </si>
-  <si>
-    <t>TEST57</t>
-  </si>
-  <si>
-    <t>TEST58</t>
-  </si>
-  <si>
-    <t>TEST59</t>
-  </si>
-  <si>
-    <t>TEST60</t>
-  </si>
-  <si>
-    <t>TEST61</t>
-  </si>
-  <si>
-    <t>TEST62</t>
-  </si>
-  <si>
-    <t>TEST63</t>
-  </si>
-  <si>
-    <t>TEST64</t>
-  </si>
-  <si>
-    <t>TEST65</t>
-  </si>
-  <si>
-    <t>TEST66</t>
-  </si>
-  <si>
-    <t>TEST67</t>
-  </si>
-  <si>
-    <t>TEST68</t>
-  </si>
-  <si>
-    <t>TEST69</t>
-  </si>
-  <si>
-    <t>TEST70</t>
-  </si>
-  <si>
-    <t>TEST71</t>
-  </si>
-  <si>
-    <t>TEST72</t>
-  </si>
-  <si>
-    <t>TEST73</t>
-  </si>
-  <si>
-    <t>TEST74</t>
-  </si>
-  <si>
-    <t>TEST75</t>
-  </si>
-  <si>
-    <t>TEST76</t>
-  </si>
-  <si>
-    <t>TEST77</t>
-  </si>
-  <si>
-    <t>TEST78</t>
-  </si>
-  <si>
-    <t>TEST79</t>
-  </si>
-  <si>
-    <t>TEST80</t>
-  </si>
-  <si>
-    <t>TEST81</t>
-  </si>
-  <si>
-    <t>TEST82</t>
-  </si>
-  <si>
-    <t>TEST83</t>
-  </si>
-  <si>
-    <t>TEST84</t>
-  </si>
-  <si>
-    <t>TEST85</t>
-  </si>
-  <si>
-    <t>TEST86</t>
-  </si>
-  <si>
-    <t>TEST87</t>
-  </si>
-  <si>
-    <t>TEST88</t>
-  </si>
-  <si>
-    <t>TEST89</t>
-  </si>
-  <si>
-    <t>TEST90</t>
-  </si>
-  <si>
-    <t>TEST91</t>
-  </si>
-  <si>
-    <t>TEST92</t>
-  </si>
-  <si>
-    <t>TEST93</t>
-  </si>
-  <si>
-    <t>TEST94</t>
-  </si>
-  <si>
-    <t>TEST95</t>
-  </si>
-  <si>
-    <t>TEST96</t>
-  </si>
-  <si>
-    <t>TEST97</t>
-  </si>
-  <si>
-    <t>TEST98</t>
-  </si>
-  <si>
-    <t>TEST99</t>
-  </si>
-  <si>
-    <t>TEST100</t>
-  </si>
-  <si>
-    <t>TEST101</t>
-  </si>
-  <si>
-    <t>TEST102</t>
-  </si>
-  <si>
-    <t>TEST103</t>
-  </si>
-  <si>
-    <t>TEST104</t>
-  </si>
-  <si>
-    <t>TEST105</t>
-  </si>
-  <si>
-    <t>TEST106</t>
-  </si>
-  <si>
-    <t>TEST107</t>
-  </si>
-  <si>
-    <t>TEST108</t>
-  </si>
-  <si>
-    <t>TEST109</t>
-  </si>
-  <si>
-    <t>TEST110</t>
-  </si>
-  <si>
-    <t>TEST111</t>
-  </si>
-  <si>
-    <t>TEST112</t>
-  </si>
-  <si>
-    <t>TEST113</t>
-  </si>
-  <si>
-    <t>TEST114</t>
-  </si>
-  <si>
-    <t>TEST115</t>
-  </si>
-  <si>
-    <t>TEST116</t>
-  </si>
-  <si>
-    <t>TEST117</t>
-  </si>
-  <si>
-    <t>TEST118</t>
-  </si>
-  <si>
-    <t>TEST119</t>
-  </si>
-  <si>
-    <t>TEST120</t>
-  </si>
-  <si>
-    <t>TEST121</t>
-  </si>
-  <si>
-    <t>TEST122</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
-    <t>TEST124</t>
-  </si>
-  <si>
-    <t>TEST125</t>
-  </si>
-  <si>
-    <t>TEST126</t>
-  </si>
-  <si>
-    <t>TEST127</t>
-  </si>
-  <si>
-    <t>TEST128</t>
-  </si>
-  <si>
-    <t>TEST129</t>
-  </si>
-  <si>
-    <t>TEST130</t>
-  </si>
-  <si>
-    <t>TEST131</t>
-  </si>
-  <si>
-    <t>TEST132</t>
-  </si>
-  <si>
-    <t>TEST133</t>
-  </si>
-  <si>
-    <t>TEST134</t>
-  </si>
-  <si>
-    <t>TEST135</t>
-  </si>
-  <si>
-    <t>TEST136</t>
-  </si>
-  <si>
-    <t>TEST137</t>
-  </si>
-  <si>
-    <t>TEST138</t>
-  </si>
-  <si>
-    <t>TEST139</t>
-  </si>
-  <si>
-    <t>TEST140</t>
-  </si>
-  <si>
-    <t>TEST141</t>
-  </si>
-  <si>
-    <t>TEST142</t>
-  </si>
-  <si>
-    <t>TEST143</t>
-  </si>
-  <si>
-    <t>TEST144</t>
-  </si>
-  <si>
-    <t>TEST145</t>
-  </si>
-  <si>
-    <t>TEST146</t>
-  </si>
-  <si>
-    <t>TEST147</t>
-  </si>
-  <si>
-    <t>TEST148</t>
-  </si>
-  <si>
-    <t>TEST149</t>
-  </si>
-  <si>
-    <t>TEST150</t>
-  </si>
-  <si>
-    <t>TEST151</t>
-  </si>
-  <si>
-    <t>TEST152</t>
-  </si>
-  <si>
-    <t>TEST153</t>
-  </si>
-  <si>
-    <t>TEST154</t>
-  </si>
-  <si>
-    <t>TEST155</t>
-  </si>
-  <si>
-    <t>TEST156</t>
-  </si>
-  <si>
-    <t>TEST157</t>
-  </si>
-  <si>
-    <t>TEST158</t>
-  </si>
-  <si>
-    <t>TEST159</t>
-  </si>
-  <si>
-    <t>TEST160</t>
-  </si>
-  <si>
-    <t>TEST161</t>
-  </si>
-  <si>
-    <t>TEST162</t>
-  </si>
-  <si>
-    <t>TEST163</t>
-  </si>
-  <si>
-    <t>TEST164</t>
-  </si>
-  <si>
-    <t>TEST165</t>
-  </si>
-  <si>
-    <t>TEST166</t>
-  </si>
-  <si>
-    <t>TEST167</t>
-  </si>
-  <si>
-    <t>TEST168</t>
-  </si>
-  <si>
-    <t>TEST169</t>
-  </si>
-  <si>
-    <t>TEST170</t>
-  </si>
-  <si>
-    <t>TEST171</t>
-  </si>
-  <si>
-    <t>TEST172</t>
-  </si>
-  <si>
-    <t>TEST173</t>
-  </si>
-  <si>
-    <t>TEST174</t>
-  </si>
-  <si>
-    <t>TEST175</t>
-  </si>
-  <si>
-    <t>TEST176</t>
-  </si>
-  <si>
-    <t>TEST177</t>
-  </si>
-  <si>
-    <t>TEST178</t>
-  </si>
-  <si>
-    <t>TEST179</t>
-  </si>
-  <si>
-    <t>TEST180</t>
-  </si>
-  <si>
-    <t>TEST181</t>
-  </si>
-  <si>
-    <t>TEST182</t>
-  </si>
-  <si>
-    <t>TEST183</t>
-  </si>
-  <si>
-    <t>TEST184</t>
-  </si>
-  <si>
-    <t>TEST185</t>
-  </si>
-  <si>
-    <t>TEST186</t>
-  </si>
-  <si>
-    <t>TEST187</t>
-  </si>
-  <si>
-    <t>TEST188</t>
-  </si>
-  <si>
-    <t>TEST189</t>
-  </si>
-  <si>
-    <t>TEST190</t>
-  </si>
-  <si>
-    <t>TEST191</t>
-  </si>
-  <si>
-    <t>TEST192</t>
-  </si>
-  <si>
-    <t>TEST193</t>
-  </si>
-  <si>
-    <t>TEST194</t>
-  </si>
-  <si>
-    <t>TEST195</t>
-  </si>
-  <si>
-    <t>TEST196</t>
-  </si>
-  <si>
-    <t>TEST197</t>
-  </si>
-  <si>
-    <t>TEST198</t>
-  </si>
-  <si>
-    <t>TEST199</t>
-  </si>
-  <si>
-    <t>TEST200</t>
-  </si>
-  <si>
-    <t>TEST201</t>
-  </si>
-  <si>
-    <t>TEST202</t>
-  </si>
-  <si>
-    <t>TEST203</t>
-  </si>
-  <si>
-    <t>TEST204</t>
-  </si>
-  <si>
-    <t>TEST205</t>
-  </si>
-  <si>
-    <t>TEST206</t>
-  </si>
-  <si>
-    <t>TEST207</t>
-  </si>
-  <si>
-    <t>TEST208</t>
-  </si>
-  <si>
-    <t>TEST209</t>
-  </si>
-  <si>
-    <t>TEST210</t>
-  </si>
-  <si>
-    <t>TEST211</t>
-  </si>
-  <si>
-    <t>TEST212</t>
-  </si>
-  <si>
-    <t>TEST213</t>
-  </si>
-  <si>
-    <t>TEST214</t>
-  </si>
-  <si>
-    <t>TEST215</t>
-  </si>
-  <si>
-    <t>TEST216</t>
-  </si>
-  <si>
-    <t>TEST217</t>
-  </si>
-  <si>
-    <t>TEST218</t>
-  </si>
-  <si>
-    <t>TEST219</t>
-  </si>
-  <si>
-    <t>TEST220</t>
-  </si>
-  <si>
-    <t>TEST221</t>
-  </si>
-  <si>
-    <t>TEST222</t>
-  </si>
-  <si>
-    <t>TEST223</t>
-  </si>
-  <si>
-    <t>TEST224</t>
-  </si>
-  <si>
-    <t>TEST225</t>
-  </si>
-  <si>
-    <t>TEST226</t>
-  </si>
-  <si>
-    <t>TEST227</t>
-  </si>
-  <si>
-    <t>TEST228</t>
-  </si>
-  <si>
-    <t>TEST229</t>
-  </si>
-  <si>
-    <t>TEST230</t>
-  </si>
-  <si>
-    <t>TEST231</t>
-  </si>
-  <si>
-    <t>TEST232</t>
-  </si>
-  <si>
-    <t>TEST233</t>
-  </si>
-  <si>
-    <t>TEST234</t>
-  </si>
-  <si>
-    <t>TEST235</t>
-  </si>
-  <si>
-    <t>TEST236</t>
-  </si>
-  <si>
-    <t>TEST237</t>
-  </si>
-  <si>
-    <t>TEST238</t>
-  </si>
-  <si>
-    <t>TEST239</t>
-  </si>
-  <si>
-    <t>TEST240</t>
-  </si>
-  <si>
-    <t>TEST241</t>
-  </si>
-  <si>
-    <t>TEST242</t>
-  </si>
-  <si>
-    <t>TEST243</t>
-  </si>
-  <si>
-    <t>TEST244</t>
-  </si>
-  <si>
-    <t>TEST245</t>
-  </si>
-  <si>
-    <t>TEST246</t>
-  </si>
-  <si>
-    <t>TEST247</t>
-  </si>
-  <si>
-    <t>TEST248</t>
-  </si>
-  <si>
-    <t>TEST249</t>
-  </si>
-  <si>
-    <t>TEST250</t>
-  </si>
-  <si>
-    <t>TEST251</t>
-  </si>
-  <si>
-    <t>TEST252</t>
-  </si>
-  <si>
-    <t>TEST253</t>
-  </si>
-  <si>
-    <t>TEST254</t>
-  </si>
-  <si>
-    <t>TEST255</t>
-  </si>
-  <si>
-    <t>TEST256</t>
-  </si>
-  <si>
-    <t>TEST257</t>
-  </si>
-  <si>
-    <t>TEST258</t>
-  </si>
-  <si>
-    <t>TEST259</t>
-  </si>
-  <si>
-    <t>TEST260</t>
-  </si>
-  <si>
-    <t>TEST261</t>
-  </si>
-  <si>
-    <t>TEST262</t>
-  </si>
-  <si>
-    <t>TEST263</t>
-  </si>
-  <si>
-    <t>TEST264</t>
-  </si>
-  <si>
-    <t>TEST265</t>
-  </si>
-  <si>
-    <t>TEST266</t>
-  </si>
-  <si>
-    <t>TEST267</t>
-  </si>
-  <si>
-    <t>TEST268</t>
-  </si>
-  <si>
-    <t>TEST269</t>
-  </si>
-  <si>
-    <t>TEST270</t>
-  </si>
-  <si>
-    <t>TEST271</t>
-  </si>
-  <si>
-    <t>TEST272</t>
-  </si>
-  <si>
-    <t>TEST273</t>
-  </si>
-  <si>
-    <t>TEST274</t>
-  </si>
-  <si>
-    <t>TEST275</t>
-  </si>
-  <si>
-    <t>TEST276</t>
-  </si>
-  <si>
-    <t>TEST277</t>
-  </si>
-  <si>
-    <t>TEST278</t>
-  </si>
-  <si>
-    <t>TEST279</t>
-  </si>
-  <si>
-    <t>TEST280</t>
-  </si>
-  <si>
-    <t>TEST281</t>
-  </si>
-  <si>
-    <t>TEST282</t>
-  </si>
-  <si>
-    <t>TEST283</t>
-  </si>
-  <si>
-    <t>TEST284</t>
-  </si>
-  <si>
-    <t>TEST285</t>
-  </si>
-  <si>
-    <t>TEST286</t>
-  </si>
-  <si>
-    <t>TEST287</t>
-  </si>
-  <si>
-    <t>TEST288</t>
-  </si>
-  <si>
-    <t>TEST289</t>
-  </si>
-  <si>
-    <t>TEST290</t>
-  </si>
-  <si>
-    <t>TEST291</t>
-  </si>
-  <si>
-    <t>TEST292</t>
-  </si>
-  <si>
-    <t>TEST293</t>
-  </si>
-  <si>
-    <t>TEST294</t>
-  </si>
-  <si>
-    <t>TEST295</t>
-  </si>
-  <si>
-    <t>TEST296</t>
-  </si>
-  <si>
-    <t>TEST297</t>
-  </si>
-  <si>
-    <t>TEST298</t>
-  </si>
-  <si>
-    <t>TEST299</t>
-  </si>
-  <si>
-    <t>TEST300</t>
-  </si>
-  <si>
-    <t>TEST301</t>
-  </si>
-  <si>
-    <t>TEST302</t>
-  </si>
-  <si>
-    <t>TEST303</t>
-  </si>
-  <si>
-    <t>TEST304</t>
-  </si>
-  <si>
-    <t>TEST305</t>
-  </si>
-  <si>
-    <t>TEST306</t>
-  </si>
-  <si>
-    <t>TEST307</t>
-  </si>
-  <si>
-    <t>TEST308</t>
-  </si>
-  <si>
-    <t>TEST309</t>
-  </si>
-  <si>
-    <t>TEST310</t>
-  </si>
-  <si>
-    <t>TEST311</t>
-  </si>
-  <si>
-    <t>TEST312</t>
-  </si>
-  <si>
-    <t>TEST313</t>
-  </si>
-  <si>
-    <t>TEST314</t>
-  </si>
-  <si>
-    <t>TEST315</t>
-  </si>
-  <si>
-    <t>TEST316</t>
-  </si>
-  <si>
-    <t>TEST317</t>
-  </si>
-  <si>
-    <t>TEST318</t>
-  </si>
-  <si>
-    <t>TEST319</t>
-  </si>
-  <si>
-    <t>TEST320</t>
-  </si>
-  <si>
-    <t>TEST321</t>
-  </si>
-  <si>
-    <t>TEST322</t>
-  </si>
-  <si>
-    <t>TEST323</t>
-  </si>
-  <si>
-    <t>TEST324</t>
-  </si>
-  <si>
-    <t>TEST325</t>
-  </si>
-  <si>
-    <t>TEST326</t>
-  </si>
-  <si>
-    <t>TEST327</t>
-  </si>
-  <si>
-    <t>TEST328</t>
-  </si>
-  <si>
-    <t>TEST329</t>
-  </si>
-  <si>
-    <t>TEST330</t>
-  </si>
-  <si>
-    <t>TEST331</t>
-  </si>
-  <si>
-    <t>TEST332</t>
-  </si>
-  <si>
-    <t>TEST333</t>
-  </si>
-  <si>
-    <t>TEST334</t>
-  </si>
-  <si>
-    <t>TEST335</t>
-  </si>
-  <si>
-    <t>TEST336</t>
-  </si>
-  <si>
-    <t>TEST337</t>
-  </si>
-  <si>
-    <t>TEST338</t>
-  </si>
-  <si>
-    <t>TEST339</t>
-  </si>
-  <si>
-    <t>TEST340</t>
-  </si>
-  <si>
-    <t>TEST341</t>
-  </si>
-  <si>
-    <t>TEST342</t>
-  </si>
-  <si>
-    <t>TEST343</t>
-  </si>
-  <si>
-    <t>TEST344</t>
-  </si>
-  <si>
-    <t>TEST345</t>
-  </si>
-  <si>
-    <t>TEST346</t>
-  </si>
-  <si>
-    <t>TEST347</t>
-  </si>
-  <si>
-    <t>TEST348</t>
-  </si>
-  <si>
-    <t>TEST349</t>
-  </si>
-  <si>
-    <t>TEST350</t>
-  </si>
-  <si>
-    <t>TEST351</t>
-  </si>
-  <si>
-    <t>TEST352</t>
-  </si>
-  <si>
-    <t>TEST353</t>
-  </si>
-  <si>
-    <t>TEST354</t>
-  </si>
-  <si>
-    <t>TEST355</t>
-  </si>
-  <si>
-    <t>TEST356</t>
-  </si>
-  <si>
-    <t>TEST357</t>
-  </si>
-  <si>
-    <t>TEST358</t>
-  </si>
-  <si>
-    <t>TEST359</t>
-  </si>
-  <si>
-    <t>TEST360</t>
-  </si>
-  <si>
-    <t>TEST361</t>
-  </si>
-  <si>
-    <t>TEST362</t>
-  </si>
-  <si>
-    <t>TEST363</t>
-  </si>
-  <si>
-    <t>TEST364</t>
-  </si>
-  <si>
-    <t>TEST365</t>
-  </si>
-  <si>
-    <t>TEST366</t>
-  </si>
-  <si>
-    <t>TEST367</t>
-  </si>
-  <si>
-    <t>TEST368</t>
-  </si>
-  <si>
-    <t>TEST369</t>
-  </si>
-  <si>
-    <t>TEST370</t>
-  </si>
-  <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2267,6 +1156,14 @@
   </si>
   <si>
     <t>Import CWI Nature Gas Bus</t>
+  </si>
+  <si>
+    <t>D0P3004BX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0E3009BX03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2679,11 +1576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E256" sqref="E256"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2693,13 +1590,13 @@
     <col min="3" max="3" width="48.58203125" customWidth="1"/>
     <col min="4" max="4" width="23.9140625" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.9140625" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.9140625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>296</v>
       </c>
@@ -2715,11 +1612,8 @@
       <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2735,11 +1629,8 @@
       <c r="E2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2755,11 +1646,8 @@
       <c r="E3" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2775,11 +1663,8 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2795,11 +1680,8 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2815,11 +1697,8 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2835,11 +1714,8 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -2855,11 +1731,8 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2875,11 +1748,8 @@
       <c r="E9" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2895,11 +1765,8 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2915,11 +1782,8 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2935,11 +1799,8 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2955,11 +1816,8 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2975,11 +1833,8 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2995,11 +1850,8 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3015,11 +1867,8 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3035,11 +1884,8 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3055,11 +1901,8 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3075,11 +1918,8 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3095,11 +1935,8 @@
       <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3115,11 +1952,8 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3135,11 +1969,8 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3155,11 +1986,8 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3175,11 +2003,8 @@
       <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3195,11 +2020,8 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3215,11 +2037,8 @@
       <c r="E26" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3235,11 +2054,8 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3255,11 +2071,8 @@
       <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3275,11 +2088,8 @@
       <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3295,11 +2105,8 @@
       <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3315,11 +2122,8 @@
       <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3335,11 +2139,8 @@
       <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3355,11 +2156,8 @@
       <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3375,11 +2173,8 @@
       <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3395,11 +2190,8 @@
       <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3415,11 +2207,8 @@
       <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3435,11 +2224,8 @@
       <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3455,11 +2241,8 @@
       <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3475,11 +2258,8 @@
       <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3495,11 +2275,8 @@
       <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3515,11 +2292,8 @@
       <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3535,11 +2309,8 @@
       <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3555,11 +2326,8 @@
       <c r="E43" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3575,11 +2343,8 @@
       <c r="E44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3595,11 +2360,8 @@
       <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3615,11 +2377,8 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3635,11 +2394,8 @@
       <c r="E47" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3655,11 +2411,8 @@
       <c r="E48" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3675,11 +2428,8 @@
       <c r="E49" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3695,11 +2445,8 @@
       <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3715,11 +2462,8 @@
       <c r="E51" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3735,11 +2479,8 @@
       <c r="E52" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3755,11 +2496,8 @@
       <c r="E53" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3775,11 +2513,8 @@
       <c r="E54" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3795,11 +2530,8 @@
       <c r="E55" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3815,11 +2547,8 @@
       <c r="E56" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3835,11 +2564,8 @@
       <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3855,11 +2581,8 @@
       <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3875,11 +2598,8 @@
       <c r="E59" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3895,11 +2615,8 @@
       <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3915,11 +2632,8 @@
       <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3935,11 +2649,8 @@
       <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3955,11 +2666,8 @@
       <c r="E63" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3975,11 +2683,8 @@
       <c r="E64" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3995,11 +2700,8 @@
       <c r="E65" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4015,11 +2717,8 @@
       <c r="E66" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4035,11 +2734,8 @@
       <c r="E67" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4055,11 +2751,8 @@
       <c r="E68" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -4075,11 +2768,8 @@
       <c r="E69" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -4095,11 +2785,8 @@
       <c r="E70" t="s">
         <v>66</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4115,11 +2802,8 @@
       <c r="E71" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4135,11 +2819,8 @@
       <c r="E72" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4155,11 +2836,8 @@
       <c r="E73" t="s">
         <v>75</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4175,11 +2853,8 @@
       <c r="E74" t="s">
         <v>59</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -4195,11 +2870,8 @@
       <c r="E75" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -4215,11 +2887,8 @@
       <c r="E76" t="s">
         <v>59</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4235,11 +2904,8 @@
       <c r="E77" t="s">
         <v>59</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4255,11 +2921,8 @@
       <c r="E78" t="s">
         <v>59</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4275,11 +2938,8 @@
       <c r="E79" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4295,11 +2955,8 @@
       <c r="E80" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -4315,11 +2972,8 @@
       <c r="E81" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -4335,11 +2989,8 @@
       <c r="E82" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4355,11 +3006,8 @@
       <c r="E83" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -4375,11 +3023,8 @@
       <c r="E84" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4395,11 +3040,8 @@
       <c r="E85" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4415,11 +3057,8 @@
       <c r="E86" t="s">
         <v>66</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -4435,11 +3074,8 @@
       <c r="E87" t="s">
         <v>66</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4455,11 +3091,8 @@
       <c r="E88" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4475,11 +3108,8 @@
       <c r="E89" t="s">
         <v>66</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -4495,11 +3125,8 @@
       <c r="E90" t="s">
         <v>66</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4515,11 +3142,8 @@
       <c r="E91" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -4535,11 +3159,8 @@
       <c r="E92" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4555,11 +3176,8 @@
       <c r="E93" t="s">
         <v>66</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4575,11 +3193,8 @@
       <c r="E94" t="s">
         <v>66</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -4595,11 +3210,8 @@
       <c r="E95" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4615,11 +3227,8 @@
       <c r="E96" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4635,11 +3244,8 @@
       <c r="E97" t="s">
         <v>66</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4655,11 +3261,8 @@
       <c r="E98" t="s">
         <v>66</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -4675,11 +3278,8 @@
       <c r="E99" t="s">
         <v>66</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4695,11 +3295,8 @@
       <c r="E100" t="s">
         <v>66</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4715,11 +3312,8 @@
       <c r="E101" t="s">
         <v>66</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4735,11 +3329,8 @@
       <c r="E102" t="s">
         <v>66</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4755,11 +3346,8 @@
       <c r="E103" t="s">
         <v>66</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4775,11 +3363,8 @@
       <c r="E104" t="s">
         <v>66</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4795,11 +3380,8 @@
       <c r="E105" t="s">
         <v>66</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4815,11 +3397,8 @@
       <c r="E106" t="s">
         <v>66</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -4835,11 +3414,8 @@
       <c r="E107" t="s">
         <v>66</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4855,11 +3431,8 @@
       <c r="E108" t="s">
         <v>66</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4875,11 +3448,8 @@
       <c r="E109" t="s">
         <v>66</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4895,11 +3465,8 @@
       <c r="E110" t="s">
         <v>66</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4915,11 +3482,8 @@
       <c r="E111" t="s">
         <v>66</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4935,11 +3499,8 @@
       <c r="E112" t="s">
         <v>66</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4955,11 +3516,8 @@
       <c r="E113" t="s">
         <v>66</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4975,11 +3533,8 @@
       <c r="E114" t="s">
         <v>66</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4995,11 +3550,8 @@
       <c r="E115" t="s">
         <v>66</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -5015,11 +3567,8 @@
       <c r="E116" t="s">
         <v>66</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -5035,11 +3584,8 @@
       <c r="E117" t="s">
         <v>66</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -5055,11 +3601,8 @@
       <c r="E118" t="s">
         <v>66</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -5075,11 +3618,8 @@
       <c r="E119" t="s">
         <v>66</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -5095,11 +3635,8 @@
       <c r="E120" t="s">
         <v>66</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -5115,11 +3652,8 @@
       <c r="E121" t="s">
         <v>66</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -5135,11 +3669,8 @@
       <c r="E122" t="s">
         <v>66</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -5155,11 +3686,8 @@
       <c r="E123" t="s">
         <v>66</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -5175,11 +3703,8 @@
       <c r="E124" t="s">
         <v>66</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -5195,11 +3720,8 @@
       <c r="E125" t="s">
         <v>66</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -5215,11 +3737,8 @@
       <c r="E126" t="s">
         <v>66</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -5235,11 +3754,8 @@
       <c r="E127" t="s">
         <v>66</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -5255,11 +3771,8 @@
       <c r="E128" t="s">
         <v>66</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -5275,11 +3788,8 @@
       <c r="E129" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -5295,11 +3805,8 @@
       <c r="E130" t="s">
         <v>120</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -5315,11 +3822,8 @@
       <c r="E131" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -5335,11 +3839,8 @@
       <c r="E132" t="s">
         <v>120</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -5355,11 +3856,8 @@
       <c r="E133" t="s">
         <v>59</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -5375,11 +3873,8 @@
       <c r="E134" t="s">
         <v>59</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5395,11 +3890,8 @@
       <c r="E135" t="s">
         <v>59</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -5415,11 +3907,8 @@
       <c r="E136" t="s">
         <v>59</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -5435,11 +3924,8 @@
       <c r="E137" t="s">
         <v>59</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -5455,11 +3941,8 @@
       <c r="E138" t="s">
         <v>75</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -5475,11 +3958,8 @@
       <c r="E139" t="s">
         <v>75</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -5495,11 +3975,8 @@
       <c r="E140" t="s">
         <v>75</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -5515,11 +3992,8 @@
       <c r="E141" t="s">
         <v>75</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -5535,11 +4009,8 @@
       <c r="E142" t="s">
         <v>75</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -5555,11 +4026,8 @@
       <c r="E143" t="s">
         <v>66</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -5575,11 +4043,8 @@
       <c r="E144" t="s">
         <v>120</v>
       </c>
-      <c r="F144" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -5595,11 +4060,8 @@
       <c r="E145" t="s">
         <v>120</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -5615,11 +4077,8 @@
       <c r="E146" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -5635,11 +4094,8 @@
       <c r="E147" t="s">
         <v>120</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -5655,11 +4111,8 @@
       <c r="E148" t="s">
         <v>138</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5675,11 +4128,8 @@
       <c r="E149" t="s">
         <v>140</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -5695,11 +4145,8 @@
       <c r="E150" t="s">
         <v>140</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -5715,11 +4162,8 @@
       <c r="E151" t="s">
         <v>140</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -5735,11 +4179,8 @@
       <c r="E152" t="s">
         <v>140</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -5755,11 +4196,8 @@
       <c r="E153" t="s">
         <v>140</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -5775,11 +4213,8 @@
       <c r="E154" t="s">
         <v>140</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5795,11 +4230,8 @@
       <c r="E155" t="s">
         <v>140</v>
       </c>
-      <c r="F155" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5815,11 +4247,8 @@
       <c r="E156" t="s">
         <v>140</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5835,11 +4264,8 @@
       <c r="E157" t="s">
         <v>140</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5855,11 +4281,8 @@
       <c r="E158" t="s">
         <v>140</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5875,11 +4298,8 @@
       <c r="E159" t="s">
         <v>140</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -5895,11 +4315,8 @@
       <c r="E160" t="s">
         <v>140</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -5915,11 +4332,8 @@
       <c r="E161" t="s">
         <v>140</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -5935,11 +4349,8 @@
       <c r="E162" t="s">
         <v>140</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -5955,11 +4366,8 @@
       <c r="E163" t="s">
         <v>140</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -5975,11 +4383,8 @@
       <c r="E164" t="s">
         <v>140</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -5995,11 +4400,8 @@
       <c r="E165" t="s">
         <v>140</v>
       </c>
-      <c r="F165" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -6015,11 +4417,8 @@
       <c r="E166" t="s">
         <v>140</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -6035,11 +4434,8 @@
       <c r="E167" t="s">
         <v>140</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -6055,11 +4451,8 @@
       <c r="E168" t="s">
         <v>140</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -6075,11 +4468,8 @@
       <c r="E169" t="s">
         <v>140</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -6095,11 +4485,8 @@
       <c r="E170" t="s">
         <v>140</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -6115,11 +4502,8 @@
       <c r="E171" t="s">
         <v>140</v>
       </c>
-      <c r="F171" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -6135,11 +4519,8 @@
       <c r="E172" t="s">
         <v>140</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -6155,11 +4536,8 @@
       <c r="E173" t="s">
         <v>140</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -6175,11 +4553,8 @@
       <c r="E174" t="s">
         <v>140</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -6195,11 +4570,8 @@
       <c r="E175" t="s">
         <v>140</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -6215,11 +4587,8 @@
       <c r="E176" t="s">
         <v>140</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -6235,11 +4604,8 @@
       <c r="E177" t="s">
         <v>140</v>
       </c>
-      <c r="F177" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -6255,11 +4621,8 @@
       <c r="E178" t="s">
         <v>140</v>
       </c>
-      <c r="F178" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -6275,11 +4638,8 @@
       <c r="E179" t="s">
         <v>140</v>
       </c>
-      <c r="F179" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -6295,11 +4655,8 @@
       <c r="E180" t="s">
         <v>140</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -6315,11 +4672,8 @@
       <c r="E181" t="s">
         <v>140</v>
       </c>
-      <c r="F181" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -6335,11 +4689,8 @@
       <c r="E182" t="s">
         <v>140</v>
       </c>
-      <c r="F182" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -6355,11 +4706,8 @@
       <c r="E183" t="s">
         <v>140</v>
       </c>
-      <c r="F183" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -6375,11 +4723,8 @@
       <c r="E184" t="s">
         <v>140</v>
       </c>
-      <c r="F184" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -6395,11 +4740,8 @@
       <c r="E185" t="s">
         <v>140</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -6415,11 +4757,8 @@
       <c r="E186" t="s">
         <v>140</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -6435,11 +4774,8 @@
       <c r="E187" t="s">
         <v>140</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -6455,11 +4791,8 @@
       <c r="E188" t="s">
         <v>140</v>
       </c>
-      <c r="F188" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -6475,11 +4808,8 @@
       <c r="E189" t="s">
         <v>140</v>
       </c>
-      <c r="F189" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -6495,11 +4825,8 @@
       <c r="E190" t="s">
         <v>140</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6515,11 +4842,8 @@
       <c r="E191" t="s">
         <v>140</v>
       </c>
-      <c r="F191" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -6535,11 +4859,8 @@
       <c r="E192" t="s">
         <v>140</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -6555,11 +4876,8 @@
       <c r="E193" t="s">
         <v>140</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -6575,11 +4893,8 @@
       <c r="E194" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F194" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -6595,11 +4910,8 @@
       <c r="E195" t="s">
         <v>140</v>
       </c>
-      <c r="F195" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -6615,11 +4927,8 @@
       <c r="E196" t="s">
         <v>140</v>
       </c>
-      <c r="F196" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -6635,11 +4944,8 @@
       <c r="E197" t="s">
         <v>140</v>
       </c>
-      <c r="F197" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -6655,11 +4961,8 @@
       <c r="E198" t="s">
         <v>140</v>
       </c>
-      <c r="F198" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -6675,11 +4978,8 @@
       <c r="E199" t="s">
         <v>140</v>
       </c>
-      <c r="F199" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -6695,11 +4995,8 @@
       <c r="E200" t="s">
         <v>138</v>
       </c>
-      <c r="F200" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -6715,11 +5012,8 @@
       <c r="E201" t="s">
         <v>169</v>
       </c>
-      <c r="F201" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -6735,11 +5029,8 @@
       <c r="E202" t="s">
         <v>138</v>
       </c>
-      <c r="F202" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -6755,11 +5046,8 @@
       <c r="E203" t="s">
         <v>138</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -6775,11 +5063,8 @@
       <c r="E204" t="s">
         <v>169</v>
       </c>
-      <c r="F204" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -6795,11 +5080,8 @@
       <c r="E205" t="s">
         <v>138</v>
       </c>
-      <c r="F205" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -6815,11 +5097,8 @@
       <c r="E206" t="s">
         <v>138</v>
       </c>
-      <c r="F206" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -6835,11 +5114,8 @@
       <c r="E207" t="s">
         <v>138</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -6855,11 +5131,8 @@
       <c r="E208" t="s">
         <v>138</v>
       </c>
-      <c r="F208" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -6875,11 +5148,8 @@
       <c r="E209" t="s">
         <v>138</v>
       </c>
-      <c r="F209" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -6895,11 +5165,8 @@
       <c r="E210" t="s">
         <v>138</v>
       </c>
-      <c r="F210" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -6915,11 +5182,8 @@
       <c r="E211" t="s">
         <v>138</v>
       </c>
-      <c r="F211" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -6935,11 +5199,8 @@
       <c r="E212" t="s">
         <v>138</v>
       </c>
-      <c r="F212" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -6955,11 +5216,8 @@
       <c r="E213" t="s">
         <v>138</v>
       </c>
-      <c r="F213" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -6975,11 +5233,8 @@
       <c r="E214" t="s">
         <v>138</v>
       </c>
-      <c r="F214" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -6995,11 +5250,8 @@
       <c r="E215" t="s">
         <v>138</v>
       </c>
-      <c r="F215" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -7015,11 +5267,8 @@
       <c r="E216" t="s">
         <v>138</v>
       </c>
-      <c r="F216" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -7035,11 +5284,8 @@
       <c r="E217" t="s">
         <v>138</v>
       </c>
-      <c r="F217" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -7055,11 +5301,8 @@
       <c r="E218" t="s">
         <v>138</v>
       </c>
-      <c r="F218" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -7075,11 +5318,8 @@
       <c r="E219" t="s">
         <v>187</v>
       </c>
-      <c r="F219" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7095,11 +5335,8 @@
       <c r="E220" t="s">
         <v>140</v>
       </c>
-      <c r="F220" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -7115,11 +5352,8 @@
       <c r="E221" t="s">
         <v>138</v>
       </c>
-      <c r="F221" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -7135,11 +5369,8 @@
       <c r="E222" t="s">
         <v>138</v>
       </c>
-      <c r="F222" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -7155,11 +5386,8 @@
       <c r="E223" t="s">
         <v>138</v>
       </c>
-      <c r="F223" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -7175,11 +5403,8 @@
       <c r="E224" t="s">
         <v>138</v>
       </c>
-      <c r="F224" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -7195,11 +5420,8 @@
       <c r="E225" t="s">
         <v>138</v>
       </c>
-      <c r="F225" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>193</v>
       </c>
@@ -7212,11 +5434,8 @@
       <c r="E226" t="s">
         <v>195</v>
       </c>
-      <c r="F226" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>193</v>
       </c>
@@ -7232,11 +5451,8 @@
       <c r="E227" t="s">
         <v>197</v>
       </c>
-      <c r="F227" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>193</v>
       </c>
@@ -7249,11 +5465,8 @@
       <c r="E228" t="s">
         <v>195</v>
       </c>
-      <c r="F228" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>193</v>
       </c>
@@ -7266,11 +5479,8 @@
       <c r="E229" t="s">
         <v>195</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>193</v>
       </c>
@@ -7283,11 +5493,8 @@
       <c r="E230" t="s">
         <v>195</v>
       </c>
-      <c r="F230" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>193</v>
       </c>
@@ -7300,11 +5507,8 @@
       <c r="E231" t="s">
         <v>195</v>
       </c>
-      <c r="F231" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>193</v>
       </c>
@@ -7317,11 +5521,8 @@
       <c r="E232" t="s">
         <v>195</v>
       </c>
-      <c r="F232" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>193</v>
       </c>
@@ -7337,11 +5538,8 @@
       <c r="E233" t="s">
         <v>197</v>
       </c>
-      <c r="F233" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>193</v>
       </c>
@@ -7357,11 +5555,8 @@
       <c r="E234" t="s">
         <v>197</v>
       </c>
-      <c r="F234" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>193</v>
       </c>
@@ -7377,11 +5572,8 @@
       <c r="E235" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>193</v>
       </c>
@@ -7397,11 +5589,8 @@
       <c r="E236" t="s">
         <v>206</v>
       </c>
-      <c r="F236" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>193</v>
       </c>
@@ -7417,11 +5606,8 @@
       <c r="E237" t="s">
         <v>206</v>
       </c>
-      <c r="F237" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>193</v>
       </c>
@@ -7437,11 +5623,8 @@
       <c r="E238" t="s">
         <v>206</v>
       </c>
-      <c r="F238" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>193</v>
       </c>
@@ -7457,11 +5640,8 @@
       <c r="E239" t="s">
         <v>206</v>
       </c>
-      <c r="F239" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>193</v>
       </c>
@@ -7477,11 +5657,8 @@
       <c r="E240" t="s">
         <v>206</v>
       </c>
-      <c r="F240" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>193</v>
       </c>
@@ -7497,11 +5674,8 @@
       <c r="E241" t="s">
         <v>206</v>
       </c>
-      <c r="F241" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>193</v>
       </c>
@@ -7517,11 +5691,8 @@
       <c r="E242" t="s">
         <v>206</v>
       </c>
-      <c r="F242" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>193</v>
       </c>
@@ -7537,11 +5708,8 @@
       <c r="E243" t="s">
         <v>206</v>
       </c>
-      <c r="F243" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>193</v>
       </c>
@@ -7557,11 +5725,8 @@
       <c r="E244" t="s">
         <v>206</v>
       </c>
-      <c r="F244" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>193</v>
       </c>
@@ -7577,11 +5742,8 @@
       <c r="E245" t="s">
         <v>206</v>
       </c>
-      <c r="F245" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>193</v>
       </c>
@@ -7597,11 +5759,8 @@
       <c r="E246" t="s">
         <v>206</v>
       </c>
-      <c r="F246" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>193</v>
       </c>
@@ -7617,11 +5776,8 @@
       <c r="E247" t="s">
         <v>206</v>
       </c>
-      <c r="F247" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>193</v>
       </c>
@@ -7637,11 +5793,8 @@
       <c r="E248" t="s">
         <v>206</v>
       </c>
-      <c r="F248" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>193</v>
       </c>
@@ -7657,11 +5810,8 @@
       <c r="E249" t="s">
         <v>206</v>
       </c>
-      <c r="F249" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>193</v>
       </c>
@@ -7677,11 +5827,8 @@
       <c r="E250" t="s">
         <v>206</v>
       </c>
-      <c r="F250" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>193</v>
       </c>
@@ -7697,11 +5844,8 @@
       <c r="E251" t="s">
         <v>206</v>
       </c>
-      <c r="F251" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>193</v>
       </c>
@@ -7717,11 +5861,8 @@
       <c r="E252" t="s">
         <v>206</v>
       </c>
-      <c r="F252" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>193</v>
       </c>
@@ -7737,11 +5878,8 @@
       <c r="E253" t="s">
         <v>206</v>
       </c>
-      <c r="F253" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>193</v>
       </c>
@@ -7757,11 +5895,8 @@
       <c r="E254" t="s">
         <v>206</v>
       </c>
-      <c r="F254" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>193</v>
       </c>
@@ -7777,11 +5912,8 @@
       <c r="E255" t="s">
         <v>206</v>
       </c>
-      <c r="F255" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>193</v>
       </c>
@@ -7797,11 +5929,8 @@
       <c r="E256" t="s">
         <v>206</v>
       </c>
-      <c r="F256" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>193</v>
       </c>
@@ -7817,11 +5946,8 @@
       <c r="E257" t="s">
         <v>206</v>
       </c>
-      <c r="F257" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>193</v>
       </c>
@@ -7837,11 +5963,8 @@
       <c r="E258" t="s">
         <v>206</v>
       </c>
-      <c r="F258" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>193</v>
       </c>
@@ -7857,11 +5980,8 @@
       <c r="E259" t="s">
         <v>206</v>
       </c>
-      <c r="F259" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>193</v>
       </c>
@@ -7877,11 +5997,8 @@
       <c r="E260" t="s">
         <v>206</v>
       </c>
-      <c r="F260" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>193</v>
       </c>
@@ -7897,11 +6014,8 @@
       <c r="E261" t="s">
         <v>206</v>
       </c>
-      <c r="F261" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>193</v>
       </c>
@@ -7917,11 +6031,8 @@
       <c r="E262" t="s">
         <v>206</v>
       </c>
-      <c r="F262" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>193</v>
       </c>
@@ -7937,11 +6048,8 @@
       <c r="E263" t="s">
         <v>206</v>
       </c>
-      <c r="F263" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>193</v>
       </c>
@@ -7957,11 +6065,8 @@
       <c r="E264" t="s">
         <v>206</v>
       </c>
-      <c r="F264" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>193</v>
       </c>
@@ -7977,11 +6082,8 @@
       <c r="E265" t="s">
         <v>232</v>
       </c>
-      <c r="F265" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>193</v>
       </c>
@@ -7997,11 +6099,8 @@
       <c r="E266" t="s">
         <v>206</v>
       </c>
-      <c r="F266" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>193</v>
       </c>
@@ -8017,11 +6116,8 @@
       <c r="E267" t="s">
         <v>206</v>
       </c>
-      <c r="F267" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>193</v>
       </c>
@@ -8037,11 +6133,8 @@
       <c r="E268" t="s">
         <v>206</v>
       </c>
-      <c r="F268" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>193</v>
       </c>
@@ -8057,11 +6150,8 @@
       <c r="E269" t="s">
         <v>206</v>
       </c>
-      <c r="F269" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>193</v>
       </c>
@@ -8077,11 +6167,8 @@
       <c r="E270" t="s">
         <v>206</v>
       </c>
-      <c r="F270" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>193</v>
       </c>
@@ -8097,11 +6184,8 @@
       <c r="E271" t="s">
         <v>206</v>
       </c>
-      <c r="F271" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>193</v>
       </c>
@@ -8117,11 +6201,8 @@
       <c r="E272" t="s">
         <v>206</v>
       </c>
-      <c r="F272" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>193</v>
       </c>
@@ -8137,11 +6218,8 @@
       <c r="E273" t="s">
         <v>206</v>
       </c>
-      <c r="F273" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>193</v>
       </c>
@@ -8157,11 +6235,8 @@
       <c r="E274" t="s">
         <v>206</v>
       </c>
-      <c r="F274" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>193</v>
       </c>
@@ -8177,11 +6252,8 @@
       <c r="E275" t="s">
         <v>206</v>
       </c>
-      <c r="F275" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>193</v>
       </c>
@@ -8197,11 +6269,8 @@
       <c r="E276" t="s">
         <v>232</v>
       </c>
-      <c r="F276" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>193</v>
       </c>
@@ -8217,11 +6286,8 @@
       <c r="E277" t="s">
         <v>232</v>
       </c>
-      <c r="F277" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>193</v>
       </c>
@@ -8237,11 +6303,8 @@
       <c r="E278" t="s">
         <v>232</v>
       </c>
-      <c r="F278" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>193</v>
       </c>
@@ -8257,11 +6320,8 @@
       <c r="E279" t="s">
         <v>232</v>
       </c>
-      <c r="F279" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>193</v>
       </c>
@@ -8277,11 +6337,8 @@
       <c r="E280" t="s">
         <v>232</v>
       </c>
-      <c r="F280" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>193</v>
       </c>
@@ -8297,11 +6354,8 @@
       <c r="E281" t="s">
         <v>232</v>
       </c>
-      <c r="F281" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>193</v>
       </c>
@@ -8317,11 +6371,8 @@
       <c r="E282" t="s">
         <v>232</v>
       </c>
-      <c r="F282" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>193</v>
       </c>
@@ -8337,11 +6388,8 @@
       <c r="E283" t="s">
         <v>232</v>
       </c>
-      <c r="F283" s="5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>193</v>
       </c>
@@ -8357,11 +6405,8 @@
       <c r="E284" t="s">
         <v>232</v>
       </c>
-      <c r="F284" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>193</v>
       </c>
@@ -8377,11 +6422,8 @@
       <c r="E285" t="s">
         <v>232</v>
       </c>
-      <c r="F285" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>193</v>
       </c>
@@ -8397,11 +6439,8 @@
       <c r="E286" t="s">
         <v>232</v>
       </c>
-      <c r="F286" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>193</v>
       </c>
@@ -8417,11 +6456,8 @@
       <c r="E287" t="s">
         <v>232</v>
       </c>
-      <c r="F287" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>193</v>
       </c>
@@ -8437,11 +6473,8 @@
       <c r="E288" t="s">
         <v>232</v>
       </c>
-      <c r="F288" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>193</v>
       </c>
@@ -8457,11 +6490,8 @@
       <c r="E289" t="s">
         <v>232</v>
       </c>
-      <c r="F289" s="5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>193</v>
       </c>
@@ -8477,11 +6507,8 @@
       <c r="E290" t="s">
         <v>232</v>
       </c>
-      <c r="F290" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -8497,11 +6524,8 @@
       <c r="E291" t="s">
         <v>232</v>
       </c>
-      <c r="F291" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>193</v>
       </c>
@@ -8517,11 +6541,8 @@
       <c r="E292" t="s">
         <v>232</v>
       </c>
-      <c r="F292" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -8537,11 +6558,8 @@
       <c r="E293" t="s">
         <v>232</v>
       </c>
-      <c r="F293" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>193</v>
       </c>
@@ -8557,11 +6575,8 @@
       <c r="E294" t="s">
         <v>232</v>
       </c>
-      <c r="F294" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>193</v>
       </c>
@@ -8577,11 +6592,8 @@
       <c r="E295" t="s">
         <v>206</v>
       </c>
-      <c r="F295" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>193</v>
       </c>
@@ -8597,11 +6609,8 @@
       <c r="E296" t="s">
         <v>232</v>
       </c>
-      <c r="F296" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>193</v>
       </c>
@@ -8617,11 +6626,8 @@
       <c r="E297" t="s">
         <v>232</v>
       </c>
-      <c r="F297" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>193</v>
       </c>
@@ -8637,11 +6643,8 @@
       <c r="E298" t="s">
         <v>250</v>
       </c>
-      <c r="F298" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>193</v>
       </c>
@@ -8657,11 +6660,8 @@
       <c r="E299" t="s">
         <v>252</v>
       </c>
-      <c r="F299" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>193</v>
       </c>
@@ -8677,11 +6677,8 @@
       <c r="E300" t="s">
         <v>252</v>
       </c>
-      <c r="F300" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>193</v>
       </c>
@@ -8697,11 +6694,8 @@
       <c r="E301" t="s">
         <v>250</v>
       </c>
-      <c r="F301" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>193</v>
       </c>
@@ -8717,11 +6711,8 @@
       <c r="E302" t="s">
         <v>250</v>
       </c>
-      <c r="F302" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>193</v>
       </c>
@@ -8737,11 +6728,8 @@
       <c r="E303" t="s">
         <v>250</v>
       </c>
-      <c r="F303" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>193</v>
       </c>
@@ -8757,11 +6745,8 @@
       <c r="E304" t="s">
         <v>250</v>
       </c>
-      <c r="F304" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>193</v>
       </c>
@@ -8777,11 +6762,8 @@
       <c r="E305" t="s">
         <v>250</v>
       </c>
-      <c r="F305" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>193</v>
       </c>
@@ -8797,11 +6779,8 @@
       <c r="E306" t="s">
         <v>250</v>
       </c>
-      <c r="F306" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>193</v>
       </c>
@@ -8817,11 +6796,8 @@
       <c r="E307" t="s">
         <v>250</v>
       </c>
-      <c r="F307" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -8837,11 +6813,8 @@
       <c r="E308" t="s">
         <v>250</v>
       </c>
-      <c r="F308" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>193</v>
       </c>
@@ -8857,11 +6830,8 @@
       <c r="E309" t="s">
         <v>250</v>
       </c>
-      <c r="F309" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>193</v>
       </c>
@@ -8877,11 +6847,8 @@
       <c r="E310" t="s">
         <v>250</v>
       </c>
-      <c r="F310" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>193</v>
       </c>
@@ -8897,11 +6864,8 @@
       <c r="E311" t="s">
         <v>250</v>
       </c>
-      <c r="F311" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>193</v>
       </c>
@@ -8917,11 +6881,8 @@
       <c r="E312" t="s">
         <v>250</v>
       </c>
-      <c r="F312" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>193</v>
       </c>
@@ -8937,11 +6898,8 @@
       <c r="E313" t="s">
         <v>250</v>
       </c>
-      <c r="F313" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>193</v>
       </c>
@@ -8957,11 +6915,8 @@
       <c r="E314" t="s">
         <v>250</v>
       </c>
-      <c r="F314" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>193</v>
       </c>
@@ -8977,11 +6932,8 @@
       <c r="E315" t="s">
         <v>250</v>
       </c>
-      <c r="F315" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>193</v>
       </c>
@@ -8997,11 +6949,8 @@
       <c r="E316" t="s">
         <v>250</v>
       </c>
-      <c r="F316" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>193</v>
       </c>
@@ -9017,11 +6966,8 @@
       <c r="E317" t="s">
         <v>250</v>
       </c>
-      <c r="F317" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>193</v>
       </c>
@@ -9037,11 +6983,8 @@
       <c r="E318" t="s">
         <v>250</v>
       </c>
-      <c r="F318" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>193</v>
       </c>
@@ -9057,11 +7000,8 @@
       <c r="E319" t="s">
         <v>250</v>
       </c>
-      <c r="F319" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>193</v>
       </c>
@@ -9077,11 +7017,8 @@
       <c r="E320" t="s">
         <v>250</v>
       </c>
-      <c r="F320" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>193</v>
       </c>
@@ -9097,11 +7034,8 @@
       <c r="E321" t="s">
         <v>250</v>
       </c>
-      <c r="F321" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>193</v>
       </c>
@@ -9117,11 +7051,8 @@
       <c r="E322" t="s">
         <v>250</v>
       </c>
-      <c r="F322" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>193</v>
       </c>
@@ -9137,11 +7068,8 @@
       <c r="E323" t="s">
         <v>250</v>
       </c>
-      <c r="F323" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>193</v>
       </c>
@@ -9157,11 +7085,8 @@
       <c r="E324" t="s">
         <v>250</v>
       </c>
-      <c r="F324" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>193</v>
       </c>
@@ -9177,11 +7102,8 @@
       <c r="E325" t="s">
         <v>250</v>
       </c>
-      <c r="F325" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>193</v>
       </c>
@@ -9197,11 +7119,8 @@
       <c r="E326" t="s">
         <v>250</v>
       </c>
-      <c r="F326" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>193</v>
       </c>
@@ -9217,11 +7136,8 @@
       <c r="E327" t="s">
         <v>250</v>
       </c>
-      <c r="F327" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>193</v>
       </c>
@@ -9237,11 +7153,8 @@
       <c r="E328" t="s">
         <v>250</v>
       </c>
-      <c r="F328" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>193</v>
       </c>
@@ -9257,11 +7170,8 @@
       <c r="E329" t="s">
         <v>250</v>
       </c>
-      <c r="F329" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>193</v>
       </c>
@@ -9277,11 +7187,8 @@
       <c r="E330" t="s">
         <v>250</v>
       </c>
-      <c r="F330" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>193</v>
       </c>
@@ -9297,11 +7204,8 @@
       <c r="E331" t="s">
         <v>250</v>
       </c>
-      <c r="F331" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>193</v>
       </c>
@@ -9317,11 +7221,8 @@
       <c r="E332" t="s">
         <v>250</v>
       </c>
-      <c r="F332" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>193</v>
       </c>
@@ -9337,11 +7238,8 @@
       <c r="E333" t="s">
         <v>250</v>
       </c>
-      <c r="F333" s="5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>193</v>
       </c>
@@ -9357,11 +7255,8 @@
       <c r="E334" t="s">
         <v>250</v>
       </c>
-      <c r="F334" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>193</v>
       </c>
@@ -9377,11 +7272,8 @@
       <c r="E335" t="s">
         <v>250</v>
       </c>
-      <c r="F335" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>193</v>
       </c>
@@ -9397,11 +7289,8 @@
       <c r="E336" t="s">
         <v>250</v>
       </c>
-      <c r="F336" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>193</v>
       </c>
@@ -9417,11 +7306,8 @@
       <c r="E337" t="s">
         <v>250</v>
       </c>
-      <c r="F337" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>193</v>
       </c>
@@ -9437,11 +7323,8 @@
       <c r="E338" t="s">
         <v>250</v>
       </c>
-      <c r="F338" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>193</v>
       </c>
@@ -9457,11 +7340,8 @@
       <c r="E339" t="s">
         <v>250</v>
       </c>
-      <c r="F339" s="5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>193</v>
       </c>
@@ -9477,11 +7357,8 @@
       <c r="E340" t="s">
         <v>250</v>
       </c>
-      <c r="F340" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>193</v>
       </c>
@@ -9497,11 +7374,8 @@
       <c r="E341" t="s">
         <v>250</v>
       </c>
-      <c r="F341" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>193</v>
       </c>
@@ -9517,11 +7391,8 @@
       <c r="E342" t="s">
         <v>250</v>
       </c>
-      <c r="F342" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>193</v>
       </c>
@@ -9537,11 +7408,8 @@
       <c r="E343" t="s">
         <v>250</v>
       </c>
-      <c r="F343" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>193</v>
       </c>
@@ -9557,11 +7425,8 @@
       <c r="E344" t="s">
         <v>250</v>
       </c>
-      <c r="F344" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>193</v>
       </c>
@@ -9577,11 +7442,8 @@
       <c r="E345" t="s">
         <v>250</v>
       </c>
-      <c r="F345" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>193</v>
       </c>
@@ -9597,11 +7459,8 @@
       <c r="E346" t="s">
         <v>250</v>
       </c>
-      <c r="F346" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>193</v>
       </c>
@@ -9617,11 +7476,8 @@
       <c r="E347" t="s">
         <v>283</v>
       </c>
-      <c r="F347" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>193</v>
       </c>
@@ -9637,11 +7493,8 @@
       <c r="E348" t="s">
         <v>283</v>
       </c>
-      <c r="F348" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>193</v>
       </c>
@@ -9657,11 +7510,8 @@
       <c r="E349" t="s">
         <v>283</v>
       </c>
-      <c r="F349" s="5" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>193</v>
       </c>
@@ -9677,11 +7527,8 @@
       <c r="E350" t="s">
         <v>283</v>
       </c>
-      <c r="F350" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>193</v>
       </c>
@@ -9697,11 +7544,8 @@
       <c r="E351" t="s">
         <v>286</v>
       </c>
-      <c r="F351" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>193</v>
       </c>
@@ -9717,11 +7561,8 @@
       <c r="E352" t="s">
         <v>286</v>
       </c>
-      <c r="F352" s="5" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>193</v>
       </c>
@@ -9737,11 +7578,8 @@
       <c r="E353" t="s">
         <v>286</v>
       </c>
-      <c r="F353" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>193</v>
       </c>
@@ -9757,11 +7595,8 @@
       <c r="E354" t="s">
         <v>286</v>
       </c>
-      <c r="F354" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>193</v>
       </c>
@@ -9777,11 +7612,8 @@
       <c r="E355" t="s">
         <v>252</v>
       </c>
-      <c r="F355" s="5" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>193</v>
       </c>
@@ -9797,11 +7629,8 @@
       <c r="E356" t="s">
         <v>252</v>
       </c>
-      <c r="F356" s="5" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>193</v>
       </c>
@@ -9817,11 +7646,8 @@
       <c r="E357" t="s">
         <v>252</v>
       </c>
-      <c r="F357" s="5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>193</v>
       </c>
@@ -9837,11 +7663,8 @@
       <c r="E358" t="s">
         <v>252</v>
       </c>
-      <c r="F358" s="5" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>193</v>
       </c>
@@ -9857,11 +7680,8 @@
       <c r="E359" t="s">
         <v>252</v>
       </c>
-      <c r="F359" s="5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>193</v>
       </c>
@@ -9877,11 +7697,8 @@
       <c r="E360" t="s">
         <v>252</v>
       </c>
-      <c r="F360" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>193</v>
       </c>
@@ -9897,11 +7714,8 @@
       <c r="E361" t="s">
         <v>252</v>
       </c>
-      <c r="F361" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>193</v>
       </c>
@@ -9917,11 +7731,8 @@
       <c r="E362" t="s">
         <v>252</v>
       </c>
-      <c r="F362" s="5" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>193</v>
       </c>
@@ -9937,11 +7748,8 @@
       <c r="E363" t="s">
         <v>252</v>
       </c>
-      <c r="F363" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>193</v>
       </c>
@@ -9957,11 +7765,8 @@
       <c r="E364" t="s">
         <v>250</v>
       </c>
-      <c r="F364" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>193</v>
       </c>
@@ -9977,11 +7782,8 @@
       <c r="E365" t="s">
         <v>250</v>
       </c>
-      <c r="F365" s="5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>193</v>
       </c>
@@ -9997,11 +7799,8 @@
       <c r="E366" t="s">
         <v>250</v>
       </c>
-      <c r="F366" s="5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>193</v>
       </c>
@@ -10017,11 +7816,8 @@
       <c r="E367" t="s">
         <v>286</v>
       </c>
-      <c r="F367" s="5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>193</v>
       </c>
@@ -10037,11 +7833,8 @@
       <c r="E368" t="s">
         <v>283</v>
       </c>
-      <c r="F368" s="5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>193</v>
       </c>
@@ -10057,11 +7850,8 @@
       <c r="E369" t="s">
         <v>283</v>
       </c>
-      <c r="F369" s="5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>301</v>
       </c>
@@ -10077,11 +7867,8 @@
       <c r="E370" t="s">
         <v>283</v>
       </c>
-      <c r="F370" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
         <v>301</v>
       </c>
@@ -10095,10 +7882,7 @@
         <v>304</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="F371" s="5" t="s">
-        <v>691</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -10119,7 +7903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D428A3-7B3F-4319-B63F-5C84320A0BE9}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -10140,7 +7926,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10148,7 +7934,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10156,7 +7942,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10164,7 +7950,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10180,7 +7966,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10188,7 +7974,7 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10196,7 +7982,7 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10204,7 +7990,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10225,7 +8011,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
         <v>302</v>
@@ -10236,7 +8022,7 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10244,7 +8030,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10252,23 +8038,23 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>729</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10331,7 +8117,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10342,282 +8128,282 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>692</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>693</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>697</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>699</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>701</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>702</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>703</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>695</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>704</v>
+        <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>706</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>707</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>708</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>710</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>698</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>711</v>
+        <v>341</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>712</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>694</v>
+        <v>324</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>714</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>697</v>
+        <v>327</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>712</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>714</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>702</v>
+        <v>332</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>712</v>
+        <v>342</v>
       </c>
       <c r="C20" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>703</v>
+        <v>333</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>714</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>699</v>
+        <v>329</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>714</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>715</v>
+        <v>345</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>714</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>716</v>
+        <v>346</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>717</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
-        <v>718</v>
+        <v>348</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>705</v>
+        <v>335</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>717</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
         <v>302</v>
@@ -10625,10 +8411,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>706</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>717</v>
+        <v>347</v>
       </c>
       <c r="C27" t="s">
         <v>302</v>
@@ -10636,10 +8422,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>720</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
         <v>302</v>
@@ -10647,10 +8433,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>721</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -10658,10 +8444,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>722</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C30" t="s">
         <v>302</v>
@@ -10669,10 +8455,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>723</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
         <v>302</v>
@@ -10712,7 +8498,7 @@
         <v>317</v>
       </c>
       <c r="D1" t="s">
-        <v>724</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10753,7 +8539,7 @@
         <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>725</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
